--- a/HW2_Tables.xlsx
+++ b/HW2_Tables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
   <si>
     <t>A</t>
   </si>
@@ -45,13 +45,46 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>Iteration 1</t>
+  </si>
+  <si>
+    <t>Iteration 2</t>
+  </si>
+  <si>
+    <t>Iteration 3</t>
+  </si>
+  <si>
+    <t>Iteration 4</t>
+  </si>
+  <si>
+    <t>Iteration 5</t>
+  </si>
+  <si>
+    <t>Iteration 6</t>
+  </si>
+  <si>
+    <t>Iteration 7</t>
+  </si>
+  <si>
+    <t>Eigenvalues</t>
+  </si>
+  <si>
+    <t>Eigenvector</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -59,8 +92,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,6 +119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,16 +153,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,20 +482,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R9"/>
+  <dimension ref="B2:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="9" width="2.6640625" customWidth="1"/>
-    <col min="11" max="18" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="9" width="2.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="2.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="3"/>
+    <col min="20" max="20" width="2.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="27" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.83203125" style="3"/>
+    <col min="29" max="30" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.83203125" style="3"/>
+    <col min="32" max="33" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.83203125" style="3"/>
+    <col min="35" max="35" width="2.6640625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="5.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="3"/>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -418,7 +531,7 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="1"/>
       <c r="L2" s="2" t="s">
         <v>0</v>
       </c>
@@ -440,355 +553,749 @@
       <c r="R2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
+      <c r="L3" s="5">
+        <f>C3/6</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <f>D3/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N3" s="5">
+        <f>E3/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O3" s="5">
+        <f>F3/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="P3" s="5">
+        <f>G3/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="5">
+        <f>H3/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="R3" s="5">
+        <f>I3/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="array" ref="V3:V9">MMULT(L3:R9,U3:U9)</f>
+        <v>0.4</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="array" ref="W3:W9">MMULT(L3:R9,V3:V9)</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="array" ref="X3:X9">MMULT(L3:R9,W3:W9)</f>
+        <v>0.34444444444444444</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="array" ref="Y3:Y9">MMULT(L3:R9,X3:X9)</f>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="array" ref="Z3:Z9">MMULT(L3:R9,Y3:Y9)</f>
+        <v>0.3271604938271605</v>
+      </c>
+      <c r="AA3" s="5">
+        <f t="array" ref="AA3:AA9">MMULT(L3:R9,Z3:Z9)</f>
+        <v>0.30699588477366258</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>3.2361</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>0.60150000000000003</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>0.71709999999999996</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="8">
+        <f>RANK(AG3,AG$3:AG$9)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
+      <c r="L4" s="5">
+        <f t="shared" ref="L4:L9" si="0">C4/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M9" si="1">D4/3</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" ref="N4:N9" si="2">E4/3</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" ref="O4:O9" si="3">F4/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" ref="P4:P9" si="4">G4/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" ref="Q4:Q9" si="5">H4/2</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" ref="R4:R9" si="6">I4/2</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0.16944444444444445</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0.14907407407407408</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0.16327160493827159</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0.15360082304526748</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0.37169999999999997</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0.35859999999999997</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="8">
+        <f t="shared" ref="AJ4:AJ9" si="7">RANK(AG4,AG$3:AG$9)</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1</v>
+      <c r="L5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0.16944444444444445</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0.14907407407407408</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0.16327160493827159</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0.15360082304526748</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>1.2361</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0.37169999999999997</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0.35859999999999997</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="8">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
+      <c r="L6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="V6" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="X6" s="5">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>9.9074074074074064E-2</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0.10895061728395061</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>1.4141999999999999</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="8">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="V7" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="X7" s="5">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>9.9074074074074064E-2</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0.10895061728395061</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>1.4141999999999999</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="8">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
+      <c r="L8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="V8" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="X8" s="5">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>9.9074074074074064E-2</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0.10895061728395061</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="8">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
+      <c r="L9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="V9" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="X9" s="5">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>9.9074074074074064E-2</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0.10895061728395061</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ9" s="8">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/HW2_Tables.xlsx
+++ b/HW2_Tables.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="-5600" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Q2" sheetId="1" r:id="rId1"/>
+    <sheet name="Q3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="26">
   <si>
     <t>A</t>
   </si>
@@ -76,15 +77,168 @@
   <si>
     <t>Rank</t>
   </si>
+  <si>
+    <t>1 - α</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*A</t>
+    </r>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <r>
+      <t>α * (D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*A)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I - α * (D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*A)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(I - α * (D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*A))</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(1 - α)(I - α * (D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*A))</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,6 +262,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -129,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,8 +317,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -165,8 +345,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,10 +386,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -195,18 +401,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1301,4 +1548,1808 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:CE9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" style="3"/>
+    <col min="2" max="2" width="3" style="3" customWidth="1"/>
+    <col min="3" max="19" width="3" style="3"/>
+    <col min="20" max="20" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3" style="3"/>
+    <col min="22" max="29" width="3" style="3" customWidth="1"/>
+    <col min="30" max="30" width="3" style="3"/>
+    <col min="31" max="31" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="38" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3" style="3"/>
+    <col min="40" max="40" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="47" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3" style="3"/>
+    <col min="49" max="49" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="56" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="3" style="3"/>
+    <col min="58" max="58" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="59" max="65" width="6.6640625" style="3" customWidth="1"/>
+    <col min="66" max="66" width="3" style="3"/>
+    <col min="67" max="67" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="68" max="74" width="5.6640625" style="3" customWidth="1"/>
+    <col min="75" max="75" width="3" style="3"/>
+    <col min="76" max="76" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="77" max="83" width="5.6640625" style="3" customWidth="1"/>
+    <col min="84" max="16384" width="3" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:83" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BM2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="BY2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE2" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10">
+        <v>0</v>
+      </c>
+      <c r="T3" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="10">
+        <v>6</v>
+      </c>
+      <c r="X3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="14">
+        <f t="array" ref="AF3:AL9">MINVERSE(W3:AC9)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AG3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="14">
+        <f t="array" ref="AO3:AU9">MMULT(AF3:AL9,C3:I9)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AQ3" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AR3" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AS3" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AT3" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AU3" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AW3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="14">
+        <f t="array" ref="AX3:BD9">T3*AO3:AU9</f>
+        <v>0</v>
+      </c>
+      <c r="AY3" s="14">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="AZ3" s="14">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="BA3" s="14">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="BB3" s="14">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="BC3" s="14">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="BD3" s="14">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="BF3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="14">
+        <f t="array" ref="BG3:BM9">L3:R9-AX3:BD9</f>
+        <v>1</v>
+      </c>
+      <c r="BH3" s="14">
+        <v>-3.3333333333333333E-2</v>
+      </c>
+      <c r="BI3" s="14">
+        <v>-3.3333333333333333E-2</v>
+      </c>
+      <c r="BJ3" s="14">
+        <v>-3.3333333333333333E-2</v>
+      </c>
+      <c r="BK3" s="14">
+        <v>-3.3333333333333333E-2</v>
+      </c>
+      <c r="BL3" s="14">
+        <v>-3.3333333333333333E-2</v>
+      </c>
+      <c r="BM3" s="14">
+        <v>-3.3333333333333333E-2</v>
+      </c>
+      <c r="BO3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="14">
+        <f t="array" ref="BP3:BV9">MINVERSE(BG3:BM9)</f>
+        <v>1.0202205882352939</v>
+      </c>
+      <c r="BQ3" s="14">
+        <v>4.1360294117647044E-2</v>
+      </c>
+      <c r="BR3" s="14">
+        <v>4.1360294117647044E-2</v>
+      </c>
+      <c r="BS3" s="14">
+        <v>3.6764705882352942E-2</v>
+      </c>
+      <c r="BT3" s="14">
+        <v>3.6764705882352949E-2</v>
+      </c>
+      <c r="BU3" s="14">
+        <v>3.6764705882352942E-2</v>
+      </c>
+      <c r="BV3" s="14">
+        <v>3.6764705882352935E-2</v>
+      </c>
+      <c r="BX3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="14">
+        <f t="array" ref="BY3:CE9">0.8*BP3:BV9</f>
+        <v>0.81617647058823517</v>
+      </c>
+      <c r="BZ3" s="14">
+        <v>3.3088235294117634E-2</v>
+      </c>
+      <c r="CA3" s="14">
+        <v>3.3088235294117634E-2</v>
+      </c>
+      <c r="CB3" s="14">
+        <v>2.9411764705882356E-2</v>
+      </c>
+      <c r="CC3" s="14">
+        <v>2.9411764705882359E-2</v>
+      </c>
+      <c r="CD3" s="14">
+        <v>2.9411764705882356E-2</v>
+      </c>
+      <c r="CE3" s="14">
+        <v>2.9411764705882349E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>1</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10">
+        <v>0</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" s="10">
+        <v>0</v>
+      </c>
+      <c r="X4" s="10">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AP4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AS4" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AT4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="14">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="14">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="BB4" s="14">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="14">
+        <v>-6.6666666666666666E-2</v>
+      </c>
+      <c r="BH4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="14">
+        <v>-6.6666666666666666E-2</v>
+      </c>
+      <c r="BK4" s="14">
+        <v>-6.6666666666666666E-2</v>
+      </c>
+      <c r="BL4" s="14">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="14">
+        <v>8.2720588235294115E-2</v>
+      </c>
+      <c r="BQ4" s="14">
+        <v>1.0168670508744038</v>
+      </c>
+      <c r="BR4" s="14">
+        <v>3.3535373608903026E-3</v>
+      </c>
+      <c r="BS4" s="14">
+        <v>7.0548489666136735E-2</v>
+      </c>
+      <c r="BT4" s="14">
+        <v>7.0548489666136749E-2</v>
+      </c>
+      <c r="BU4" s="14">
+        <v>2.9809220985691576E-3</v>
+      </c>
+      <c r="BV4" s="14">
+        <v>2.9809220985691576E-3</v>
+      </c>
+      <c r="BX4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="14">
+        <v>6.6176470588235295E-2</v>
+      </c>
+      <c r="BZ4" s="14">
+        <v>0.81349364069952301</v>
+      </c>
+      <c r="CA4" s="14">
+        <v>2.6828298887122421E-3</v>
+      </c>
+      <c r="CB4" s="14">
+        <v>5.6438791732909388E-2</v>
+      </c>
+      <c r="CC4" s="14">
+        <v>5.6438791732909402E-2</v>
+      </c>
+      <c r="CD4" s="14">
+        <v>2.3847376788553262E-3</v>
+      </c>
+      <c r="CE4" s="14">
+        <v>2.3847376788553262E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>1</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10">
+        <v>0</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="10">
+        <v>0</v>
+      </c>
+      <c r="X5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AI5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AP5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AU5" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AW5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="14">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AY5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="14">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="BD5" s="14">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="BF5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG5" s="14">
+        <v>-6.6666666666666666E-2</v>
+      </c>
+      <c r="BH5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="14">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="14">
+        <v>-6.6666666666666666E-2</v>
+      </c>
+      <c r="BM5" s="14">
+        <v>-6.6666666666666666E-2</v>
+      </c>
+      <c r="BO5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="14">
+        <v>8.2720588235294101E-2</v>
+      </c>
+      <c r="BQ5" s="14">
+        <v>3.3535373608903018E-3</v>
+      </c>
+      <c r="BR5" s="14">
+        <v>1.0168670508744038</v>
+      </c>
+      <c r="BS5" s="14">
+        <v>2.9809220985691576E-3</v>
+      </c>
+      <c r="BT5" s="14">
+        <v>2.9809220985691576E-3</v>
+      </c>
+      <c r="BU5" s="14">
+        <v>7.0548489666136735E-2</v>
+      </c>
+      <c r="BV5" s="14">
+        <v>7.0548489666136721E-2</v>
+      </c>
+      <c r="BX5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BY5" s="14">
+        <v>6.6176470588235281E-2</v>
+      </c>
+      <c r="BZ5" s="14">
+        <v>2.6828298887122417E-3</v>
+      </c>
+      <c r="CA5" s="14">
+        <v>0.81349364069952301</v>
+      </c>
+      <c r="CB5" s="14">
+        <v>2.3847376788553262E-3</v>
+      </c>
+      <c r="CC5" s="14">
+        <v>2.3847376788553262E-3</v>
+      </c>
+      <c r="CD5" s="14">
+        <v>5.6438791732909388E-2</v>
+      </c>
+      <c r="CE5" s="14">
+        <v>5.6438791732909381E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <v>1</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0</v>
+      </c>
+      <c r="T6" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0</v>
+      </c>
+      <c r="X6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AJ6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AP6" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AQ6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX6" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AY6" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AZ6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG6" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="BH6" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="BI6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="14">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP6" s="14">
+        <v>0.11029411764705882</v>
+      </c>
+      <c r="BQ6" s="14">
+        <v>0.1058227344992051</v>
+      </c>
+      <c r="BR6" s="14">
+        <v>4.471383147853736E-3</v>
+      </c>
+      <c r="BS6" s="14">
+        <v>1.0107313195548491</v>
+      </c>
+      <c r="BT6" s="14">
+        <v>1.0731319554848968E-2</v>
+      </c>
+      <c r="BU6" s="14">
+        <v>3.9745627980922104E-3</v>
+      </c>
+      <c r="BV6" s="14">
+        <v>3.9745627980922096E-3</v>
+      </c>
+      <c r="BX6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY6" s="14">
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="BZ6" s="14">
+        <v>8.4658187599364082E-2</v>
+      </c>
+      <c r="CA6" s="14">
+        <v>3.577106518282989E-3</v>
+      </c>
+      <c r="CB6" s="14">
+        <v>0.80858505564387928</v>
+      </c>
+      <c r="CC6" s="14">
+        <v>8.5850556438791751E-3</v>
+      </c>
+      <c r="CD6" s="14">
+        <v>3.1796502384737685E-3</v>
+      </c>
+      <c r="CE6" s="14">
+        <v>3.1796502384737677E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="W7" s="10">
+        <v>0</v>
+      </c>
+      <c r="X7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AK7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO7" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AP7" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AQ7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX7" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AY7" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AZ7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG7" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="BH7" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="BI7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="14">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP7" s="14">
+        <v>0.11029411764705882</v>
+      </c>
+      <c r="BQ7" s="14">
+        <v>0.10582273449920508</v>
+      </c>
+      <c r="BR7" s="14">
+        <v>4.471383147853736E-3</v>
+      </c>
+      <c r="BS7" s="14">
+        <v>1.0731319554848967E-2</v>
+      </c>
+      <c r="BT7" s="14">
+        <v>1.0107313195548491</v>
+      </c>
+      <c r="BU7" s="14">
+        <v>3.9745627980922104E-3</v>
+      </c>
+      <c r="BV7" s="14">
+        <v>3.9745627980922096E-3</v>
+      </c>
+      <c r="BX7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BY7" s="14">
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="BZ7" s="14">
+        <v>8.4658187599364068E-2</v>
+      </c>
+      <c r="CA7" s="14">
+        <v>3.577106518282989E-3</v>
+      </c>
+      <c r="CB7" s="14">
+        <v>8.5850556438791734E-3</v>
+      </c>
+      <c r="CC7" s="14">
+        <v>0.80858505564387928</v>
+      </c>
+      <c r="CD7" s="14">
+        <v>3.1796502384737685E-3</v>
+      </c>
+      <c r="CE7" s="14">
+        <v>3.1796502384737677E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>1</v>
+      </c>
+      <c r="R8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0</v>
+      </c>
+      <c r="X8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AL8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AP8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AR8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX8" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AY8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="BA8" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG8" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="BH8" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="BJ8" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="14">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="14">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP8" s="14">
+        <v>0.11029411764705882</v>
+      </c>
+      <c r="BQ8" s="14">
+        <v>4.471383147853736E-3</v>
+      </c>
+      <c r="BR8" s="14">
+        <v>0.10582273449920507</v>
+      </c>
+      <c r="BS8" s="14">
+        <v>3.9745627980922096E-3</v>
+      </c>
+      <c r="BT8" s="14">
+        <v>3.9745627980922096E-3</v>
+      </c>
+      <c r="BU8" s="14">
+        <v>1.0107313195548491</v>
+      </c>
+      <c r="BV8" s="14">
+        <v>1.0731319554848965E-2</v>
+      </c>
+      <c r="BX8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BY8" s="14">
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="BZ8" s="14">
+        <v>3.577106518282989E-3</v>
+      </c>
+      <c r="CA8" s="14">
+        <v>8.4658187599364054E-2</v>
+      </c>
+      <c r="CB8" s="14">
+        <v>3.1796502384737677E-3</v>
+      </c>
+      <c r="CC8" s="14">
+        <v>3.1796502384737677E-3</v>
+      </c>
+      <c r="CD8" s="14">
+        <v>0.80858505564387928</v>
+      </c>
+      <c r="CE8" s="14">
+        <v>8.5850556438791716E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
+        <v>1</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="W9" s="10">
+        <v>0</v>
+      </c>
+      <c r="X9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AN9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO9" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AP9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AR9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX9" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AY9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="BA9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG9" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="BH9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="BJ9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="14">
+        <v>1</v>
+      </c>
+      <c r="BO9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP9" s="14">
+        <v>0.11029411764705883</v>
+      </c>
+      <c r="BQ9" s="14">
+        <v>4.471383147853736E-3</v>
+      </c>
+      <c r="BR9" s="14">
+        <v>0.10582273449920508</v>
+      </c>
+      <c r="BS9" s="14">
+        <v>3.9745627980922096E-3</v>
+      </c>
+      <c r="BT9" s="14">
+        <v>3.9745627980922096E-3</v>
+      </c>
+      <c r="BU9" s="14">
+        <v>1.0731319554848967E-2</v>
+      </c>
+      <c r="BV9" s="14">
+        <v>1.0107313195548489</v>
+      </c>
+      <c r="BX9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY9" s="14">
+        <v>8.8235294117647078E-2</v>
+      </c>
+      <c r="BZ9" s="14">
+        <v>3.577106518282989E-3</v>
+      </c>
+      <c r="CA9" s="14">
+        <v>8.4658187599364068E-2</v>
+      </c>
+      <c r="CB9" s="14">
+        <v>3.1796502384737677E-3</v>
+      </c>
+      <c r="CC9" s="14">
+        <v>3.1796502384737677E-3</v>
+      </c>
+      <c r="CD9" s="14">
+        <v>8.5850556438791734E-3</v>
+      </c>
+      <c r="CE9" s="14">
+        <v>0.80858505564387917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HW2_Tables.xlsx
+++ b/HW2_Tables.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5600" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-5600" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Q2" sheetId="1" r:id="rId1"/>
     <sheet name="Q3" sheetId="2" r:id="rId2"/>
+    <sheet name="Q5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -235,8 +236,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -410,10 +411,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1554,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3352,4 +3353,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HW2_Tables.xlsx
+++ b/HW2_Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5600" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Q2" sheetId="1" r:id="rId1"/>
@@ -637,6 +637,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q5'!$GJ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -705,7 +716,7 @@
                   <c:v>0.838283789655985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.309014959168362</c:v>
+                  <c:v>1.801574811102775</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.698627679039759</c:v>
@@ -795,11 +806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125571712"/>
-        <c:axId val="-2113540848"/>
+        <c:axId val="2088391568"/>
+        <c:axId val="2084542112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125571712"/>
+        <c:axId val="2088391568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,7 +830,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -856,16 +867,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113540848"/>
+        <c:crossAx val="2084542112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2113540848"/>
+        <c:axId val="2084542112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.5"/>
-          <c:min val="-2.5"/>
+          <c:max val="3.0"/>
+          <c:min val="-3.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -883,7 +894,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -920,7 +931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125571712"/>
+        <c:crossAx val="2088391568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4452,8 +4463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:GL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="HE13" sqref="HE13"/>
+    <sheetView tabSelected="1" topLeftCell="FX1" workbookViewId="0">
+      <selection activeCell="HF7" sqref="HF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11993,7 +12004,7 @@
         <v>14</v>
       </c>
       <c r="GC16" s="14">
-        <v>0.45</v>
+        <v>0.245</v>
       </c>
       <c r="GD16" s="14">
         <v>-1.7000000000000001E-2</v>
@@ -12002,7 +12013,7 @@
         <v>14</v>
       </c>
       <c r="GK16" s="14">
-        <v>3.3090149591683624</v>
+        <v>1.8015748111027752</v>
       </c>
       <c r="GL16" s="14">
         <v>-7.6745162714010842E-2</v>

--- a/HW2_Tables.xlsx
+++ b/HW2_Tables.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Q2" sheetId="1" r:id="rId1"/>
     <sheet name="Q3" sheetId="2" r:id="rId2"/>
-    <sheet name="Q5" sheetId="3" r:id="rId3"/>
+    <sheet name="Q5.2" sheetId="3" r:id="rId3"/>
+    <sheet name="Q5.3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="61">
   <si>
     <t>A</t>
   </si>
@@ -320,6 +321,185 @@
   <si>
     <t>Y</t>
   </si>
+  <si>
+    <t>K1_X</t>
+  </si>
+  <si>
+    <t>K1_Y</t>
+  </si>
+  <si>
+    <t>K2_X</t>
+  </si>
+  <si>
+    <t>K2_Y</t>
+  </si>
+  <si>
+    <t>D_K1</t>
+  </si>
+  <si>
+    <t>D_K2</t>
+  </si>
+  <si>
+    <t>Clust.</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>NK1_X</t>
+  </si>
+  <si>
+    <t>NK1_Y</t>
+  </si>
+  <si>
+    <t>NK2_X</t>
+  </si>
+  <si>
+    <t>NK2_Y</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -330,7 +510,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -365,6 +545,19 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -386,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -424,8 +617,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -463,8 +682,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,8 +763,26 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -528,6 +801,24 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -546,6 +837,24 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -639,7 +948,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Q5'!$GJ$2</c:f>
+              <c:f>'Q5.2'!$GJ$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -672,7 +981,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Q5'!$GK$3:$GK$20</c:f>
+              <c:f>'Q5.2'!$GK$3:$GK$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
@@ -735,7 +1044,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Q5'!$GL$3:$GL$20</c:f>
+              <c:f>'Q5.2'!$GL$3:$GL$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
@@ -806,11 +1115,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2088391568"/>
-        <c:axId val="2084542112"/>
+        <c:axId val="466291440"/>
+        <c:axId val="466278352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2088391568"/>
+        <c:axId val="466291440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,12 +1176,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084542112"/>
+        <c:crossAx val="466278352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2084542112"/>
+        <c:axId val="466278352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -931,7 +1240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088391568"/>
+        <c:crossAx val="466291440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1836,9 +2145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4463,9 +4770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:GL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FX1" workbookViewId="0">
-      <selection activeCell="HF7" sqref="HF7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5010,11 +5315,11 @@
       <c r="GB2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="GC2" s="11">
-        <v>1</v>
-      </c>
-      <c r="GD2" s="11">
-        <v>2</v>
+      <c r="GC2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="GD2" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="GF2" s="10" t="s">
         <v>34</v>
@@ -14011,4 +14316,7529 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:DF23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="DG3" sqref="DG3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.6640625" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="6.6640625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="M2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="18"/>
+      <c r="U2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="18"/>
+      <c r="X2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG2" s="18"/>
+      <c r="AI2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR2" s="18"/>
+      <c r="AT2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC2" s="18"/>
+      <c r="BE2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN2" s="18"/>
+      <c r="BP2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="BQ2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="BS2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="BV2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW2" s="18"/>
+      <c r="BX2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="BY2" s="18"/>
+      <c r="CA2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="CB2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="CE2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="CG2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="CH2" s="18"/>
+      <c r="CI2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="CJ2" s="18"/>
+      <c r="CL2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="CM2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="CO2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="CP2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="CQ2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="CR2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="CS2" s="18"/>
+      <c r="CT2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="CU2" s="18"/>
+      <c r="CW2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="CX2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="CZ2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="DA2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="DB2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="DC2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="DD2" s="18"/>
+      <c r="DE2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="DF2" s="18"/>
+    </row>
+    <row r="3" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="D3" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="E3" s="20">
+        <f>SQRT(($C3-$C$23)^2+($D3-$D$23)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="20">
+        <f>SQRT(($C3-$E$23)^2+($D3-$F$23)^2)</f>
+        <v>6.0006216361307105</v>
+      </c>
+      <c r="G3" s="15" t="str">
+        <f>IF((E3&lt;F3),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="H3" s="20">
+        <f>IF($G3="K1",$C3,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="I3" s="20">
+        <f>IF($G3="K1",$D3,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="J3" s="20" t="str">
+        <f>IF($G3="K2",$C3,"")</f>
+        <v/>
+      </c>
+      <c r="K3" s="20" t="str">
+        <f>IF($G3="K2",$D3,"")</f>
+        <v/>
+      </c>
+      <c r="M3" s="16">
+        <v>1</v>
+      </c>
+      <c r="N3" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="O3" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="P3" s="20">
+        <f>SQRT((N3-N$23)^2+(O3-O$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="Q3" s="20">
+        <f>SQRT((N3-P$23)^2+(O3-Q$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="R3" s="15" t="str">
+        <f>IF((P3&lt;Q3),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="S3" s="20">
+        <f>IF(R3="K1",N3,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="T3" s="20">
+        <f>IF(R3="K1",O3,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="U3" s="20" t="str">
+        <f>IF(R3="K2",N3,"")</f>
+        <v/>
+      </c>
+      <c r="V3" s="20" t="str">
+        <f>IF(R3="K2",O3,"")</f>
+        <v/>
+      </c>
+      <c r="X3" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="Z3" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="AA3" s="20">
+        <f>SQRT((Y3-Y$23)^2+(Z3-Z$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="AB3" s="20">
+        <f>SQRT((Y3-AA$23)^2+(Z3-AB$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="AC3" s="15" t="str">
+        <f>IF((AA3&lt;AB3),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="AD3" s="20">
+        <f>IF(AC3="K1",Y3,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="AE3" s="20">
+        <f>IF(AC3="K1",Z3,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="AF3" s="20" t="str">
+        <f>IF(AC3="K2",Y3,"")</f>
+        <v/>
+      </c>
+      <c r="AG3" s="20" t="str">
+        <f>IF(AC3="K2",Z3,"")</f>
+        <v/>
+      </c>
+      <c r="AI3" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="AK3" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="AL3" s="20">
+        <f>SQRT((AJ3-AJ$23)^2+(AK3-AK$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="AM3" s="20">
+        <f>SQRT((AJ3-AL$23)^2+(AK3-AM$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="AN3" s="15" t="str">
+        <f>IF((AL3&lt;AM3),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="AO3" s="20">
+        <f>IF(AN3="K1",AJ3,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="AP3" s="20">
+        <f>IF(AN3="K1",AK3,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="AQ3" s="20" t="str">
+        <f>IF(AN3="K2",AJ3,"")</f>
+        <v/>
+      </c>
+      <c r="AR3" s="20" t="str">
+        <f>IF(AN3="K2",AK3,"")</f>
+        <v/>
+      </c>
+      <c r="AT3" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="AV3" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="AW3" s="20">
+        <f>SQRT((AU3-AU$23)^2+(AV3-AV$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="AX3" s="20">
+        <f>SQRT((AU3-AW$23)^2+(AV3-AX$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="AY3" s="15" t="str">
+        <f>IF((AW3&lt;AX3),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="AZ3" s="20">
+        <f>IF(AY3="K1",AU3,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="BA3" s="20">
+        <f>IF(AY3="K1",AV3,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="BB3" s="20" t="str">
+        <f>IF(AY3="K2",AU3,"")</f>
+        <v/>
+      </c>
+      <c r="BC3" s="20" t="str">
+        <f>IF(AY3="K2",AV3,"")</f>
+        <v/>
+      </c>
+      <c r="BE3" s="16">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="BG3" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="BH3" s="20">
+        <f>SQRT((BF3-BF$23)^2+(BG3-BG$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="BI3" s="20">
+        <f>SQRT((BF3-BH$23)^2+(BG3-BI$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="BJ3" s="15" t="str">
+        <f>IF((BH3&lt;BI3),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="BK3" s="20">
+        <f>IF(BJ3="K1",BF3,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="BL3" s="20">
+        <f>IF(BJ3="K1",BG3,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="BM3" s="20" t="str">
+        <f>IF(BJ3="K2",BF3,"")</f>
+        <v/>
+      </c>
+      <c r="BN3" s="20" t="str">
+        <f>IF(BJ3="K2",BG3,"")</f>
+        <v/>
+      </c>
+      <c r="BP3" s="16">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="BR3" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="BS3" s="20">
+        <f>SQRT((BQ3-BQ$23)^2+(BR3-BR$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="BT3" s="20">
+        <f>SQRT((BQ3-BS$23)^2+(BR3-BT$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="BU3" s="15" t="str">
+        <f>IF((BS3&lt;BT3),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="BV3" s="20">
+        <f>IF(BU3="K1",BQ3,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="BW3" s="20">
+        <f>IF(BU3="K1",BR3,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="BX3" s="20" t="str">
+        <f>IF(BU3="K2",BQ3,"")</f>
+        <v/>
+      </c>
+      <c r="BY3" s="20" t="str">
+        <f>IF(BU3="K2",BR3,"")</f>
+        <v/>
+      </c>
+      <c r="CA3" s="16">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="CC3" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="CD3" s="20">
+        <f>SQRT((CB3-CB$23)^2+(CC3-CC$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="CE3" s="20">
+        <f>SQRT((CB3-CD$23)^2+(CC3-CE$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="CF3" s="15" t="str">
+        <f>IF((CD3&lt;CE3),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="CG3" s="20">
+        <f>IF(CF3="K1",CB3,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="CH3" s="20">
+        <f>IF(CF3="K1",CC3,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="CI3" s="20" t="str">
+        <f>IF(CF3="K2",CB3,"")</f>
+        <v/>
+      </c>
+      <c r="CJ3" s="20" t="str">
+        <f>IF(CF3="K2",CC3,"")</f>
+        <v/>
+      </c>
+      <c r="CL3" s="16">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="CN3" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="CO3" s="20">
+        <f>SQRT((CM3-CM$23)^2+(CN3-CN$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="CP3" s="20">
+        <f>SQRT((CM3-CO$23)^2+(CN3-CP$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="CQ3" s="15" t="str">
+        <f>IF((CO3&lt;CP3),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="CR3" s="20">
+        <f>IF(CQ3="K1",CM3,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="CS3" s="20">
+        <f>IF(CQ3="K1",CN3,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="CT3" s="20" t="str">
+        <f>IF(CQ3="K2",CM3,"")</f>
+        <v/>
+      </c>
+      <c r="CU3" s="20" t="str">
+        <f>IF(CQ3="K2",CN3,"")</f>
+        <v/>
+      </c>
+      <c r="CW3" s="16">
+        <v>1</v>
+      </c>
+      <c r="CX3" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="CY3" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="CZ3" s="20">
+        <f>SQRT((CX3-CX$23)^2+(CY3-CY$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="DA3" s="20">
+        <f>SQRT((CX3-CZ$23)^2+(CY3-DA$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="DB3" s="15" t="str">
+        <f>IF((CZ3&lt;DA3),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="DC3" s="20">
+        <f>IF(DB3="K1",CX3,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="DD3" s="20">
+        <f>IF(DB3="K1",CY3,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="DE3" s="20" t="str">
+        <f>IF(DB3="K2",CX3,"")</f>
+        <v/>
+      </c>
+      <c r="DF3" s="20" t="str">
+        <f>IF(DB3="K2",CY3,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="16">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="D4" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="E4" s="20">
+        <f>SQRT(($C4-$C$23)^2+($D4-$D$23)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="20">
+        <f t="shared" ref="F4:F20" si="0">SQRT(($C4-$E$23)^2+($D4-$F$23)^2)</f>
+        <v>6.0006216361307105</v>
+      </c>
+      <c r="G4" s="15" t="str">
+        <f t="shared" ref="G4:G20" si="1">IF((E4&lt;F4),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" ref="H4:H20" si="2">IF($G4="K1",$C4,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="I4" s="20">
+        <f t="shared" ref="I4:I20" si="3">IF($G4="K1",$D4,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="J4" s="20" t="str">
+        <f t="shared" ref="J4:J20" si="4">IF($G4="K2",$C4,"")</f>
+        <v/>
+      </c>
+      <c r="K4" s="20" t="str">
+        <f t="shared" ref="K4:K20" si="5">IF($G4="K2",$D4,"")</f>
+        <v/>
+      </c>
+      <c r="M4" s="16">
+        <v>2</v>
+      </c>
+      <c r="N4" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="O4" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="P4" s="20">
+        <f t="shared" ref="P4:P20" si="6">SQRT((N4-N$23)^2+(O4-O$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="Q4" s="20">
+        <f t="shared" ref="Q4:Q20" si="7">SQRT((N4-P$23)^2+(O4-Q$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="R4" s="15" t="str">
+        <f t="shared" ref="R4:R20" si="8">IF((P4&lt;Q4),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="S4" s="20">
+        <f t="shared" ref="S4:S20" si="9">IF(R4="K1",N4,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="T4" s="20">
+        <f t="shared" ref="T4:T20" si="10">IF(R4="K1",O4,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="U4" s="20" t="str">
+        <f t="shared" ref="U4:U20" si="11">IF(R4="K2",N4,"")</f>
+        <v/>
+      </c>
+      <c r="V4" s="20" t="str">
+        <f t="shared" ref="V4:V20" si="12">IF(R4="K2",O4,"")</f>
+        <v/>
+      </c>
+      <c r="X4" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="Z4" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="AA4" s="20">
+        <f t="shared" ref="AA4:AA20" si="13">SQRT((Y4-Y$23)^2+(Z4-Z$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="AB4" s="20">
+        <f t="shared" ref="AB4:AB20" si="14">SQRT((Y4-AA$23)^2+(Z4-AB$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="AC4" s="15" t="str">
+        <f t="shared" ref="AC4:AC20" si="15">IF((AA4&lt;AB4),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="AD4" s="20">
+        <f t="shared" ref="AD4:AD20" si="16">IF(AC4="K1",Y4,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="AE4" s="20">
+        <f t="shared" ref="AE4:AE20" si="17">IF(AC4="K1",Z4,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="AF4" s="20" t="str">
+        <f t="shared" ref="AF4:AF20" si="18">IF(AC4="K2",Y4,"")</f>
+        <v/>
+      </c>
+      <c r="AG4" s="20" t="str">
+        <f t="shared" ref="AG4:AG20" si="19">IF(AC4="K2",Z4,"")</f>
+        <v/>
+      </c>
+      <c r="AI4" s="16">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="AK4" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="AL4" s="20">
+        <f t="shared" ref="AL4:AL20" si="20">SQRT((AJ4-AJ$23)^2+(AK4-AK$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="AM4" s="20">
+        <f t="shared" ref="AM4:AM20" si="21">SQRT((AJ4-AL$23)^2+(AK4-AM$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="AN4" s="15" t="str">
+        <f t="shared" ref="AN4:AN20" si="22">IF((AL4&lt;AM4),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="AO4" s="20">
+        <f t="shared" ref="AO4:AO20" si="23">IF(AN4="K1",AJ4,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="AP4" s="20">
+        <f t="shared" ref="AP4:AP20" si="24">IF(AN4="K1",AK4,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="AQ4" s="20" t="str">
+        <f t="shared" ref="AQ4:AQ20" si="25">IF(AN4="K2",AJ4,"")</f>
+        <v/>
+      </c>
+      <c r="AR4" s="20" t="str">
+        <f t="shared" ref="AR4:AR20" si="26">IF(AN4="K2",AK4,"")</f>
+        <v/>
+      </c>
+      <c r="AT4" s="16">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="AV4" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="AW4" s="20">
+        <f t="shared" ref="AW4:AW20" si="27">SQRT((AU4-AU$23)^2+(AV4-AV$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="AX4" s="20">
+        <f t="shared" ref="AX4:AX20" si="28">SQRT((AU4-AW$23)^2+(AV4-AX$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="AY4" s="15" t="str">
+        <f t="shared" ref="AY4:AY20" si="29">IF((AW4&lt;AX4),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="AZ4" s="20">
+        <f t="shared" ref="AZ4:AZ20" si="30">IF(AY4="K1",AU4,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="BA4" s="20">
+        <f t="shared" ref="BA4:BA20" si="31">IF(AY4="K1",AV4,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="BB4" s="20" t="str">
+        <f t="shared" ref="BB4:BB20" si="32">IF(AY4="K2",AU4,"")</f>
+        <v/>
+      </c>
+      <c r="BC4" s="20" t="str">
+        <f t="shared" ref="BC4:BC20" si="33">IF(AY4="K2",AV4,"")</f>
+        <v/>
+      </c>
+      <c r="BE4" s="16">
+        <v>2</v>
+      </c>
+      <c r="BF4" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="BG4" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="BH4" s="20">
+        <f t="shared" ref="BH4:BH20" si="34">SQRT((BF4-BF$23)^2+(BG4-BG$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="BI4" s="20">
+        <f t="shared" ref="BI4:BI20" si="35">SQRT((BF4-BH$23)^2+(BG4-BI$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="BJ4" s="15" t="str">
+        <f t="shared" ref="BJ4:BJ20" si="36">IF((BH4&lt;BI4),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="BK4" s="20">
+        <f t="shared" ref="BK4:BK20" si="37">IF(BJ4="K1",BF4,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="BL4" s="20">
+        <f t="shared" ref="BL4:BL20" si="38">IF(BJ4="K1",BG4,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="BM4" s="20" t="str">
+        <f t="shared" ref="BM4:BM20" si="39">IF(BJ4="K2",BF4,"")</f>
+        <v/>
+      </c>
+      <c r="BN4" s="20" t="str">
+        <f t="shared" ref="BN4:BN20" si="40">IF(BJ4="K2",BG4,"")</f>
+        <v/>
+      </c>
+      <c r="BP4" s="16">
+        <v>2</v>
+      </c>
+      <c r="BQ4" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="BR4" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="BS4" s="20">
+        <f t="shared" ref="BS4:BS20" si="41">SQRT((BQ4-BQ$23)^2+(BR4-BR$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="BT4" s="20">
+        <f t="shared" ref="BT4:BT20" si="42">SQRT((BQ4-BS$23)^2+(BR4-BT$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="BU4" s="15" t="str">
+        <f t="shared" ref="BU4:BU20" si="43">IF((BS4&lt;BT4),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="BV4" s="20">
+        <f t="shared" ref="BV4:BV20" si="44">IF(BU4="K1",BQ4,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="BW4" s="20">
+        <f t="shared" ref="BW4:BW20" si="45">IF(BU4="K1",BR4,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="BX4" s="20" t="str">
+        <f t="shared" ref="BX4:BX20" si="46">IF(BU4="K2",BQ4,"")</f>
+        <v/>
+      </c>
+      <c r="BY4" s="20" t="str">
+        <f t="shared" ref="BY4:BY20" si="47">IF(BU4="K2",BR4,"")</f>
+        <v/>
+      </c>
+      <c r="CA4" s="16">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="CC4" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="CD4" s="20">
+        <f t="shared" ref="CD4:CD20" si="48">SQRT((CB4-CB$23)^2+(CC4-CC$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="CE4" s="20">
+        <f t="shared" ref="CE4:CE20" si="49">SQRT((CB4-CD$23)^2+(CC4-CE$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="CF4" s="15" t="str">
+        <f t="shared" ref="CF4:CF20" si="50">IF((CD4&lt;CE4),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="CG4" s="20">
+        <f t="shared" ref="CG4:CG20" si="51">IF(CF4="K1",CB4,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="CH4" s="20">
+        <f t="shared" ref="CH4:CH20" si="52">IF(CF4="K1",CC4,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="CI4" s="20" t="str">
+        <f t="shared" ref="CI4:CI20" si="53">IF(CF4="K2",CB4,"")</f>
+        <v/>
+      </c>
+      <c r="CJ4" s="20" t="str">
+        <f t="shared" ref="CJ4:CJ20" si="54">IF(CF4="K2",CC4,"")</f>
+        <v/>
+      </c>
+      <c r="CL4" s="16">
+        <v>2</v>
+      </c>
+      <c r="CM4" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="CN4" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="CO4" s="20">
+        <f t="shared" ref="CO4:CO20" si="55">SQRT((CM4-CM$23)^2+(CN4-CN$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="CP4" s="20">
+        <f t="shared" ref="CP4:CP20" si="56">SQRT((CM4-CO$23)^2+(CN4-CP$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="CQ4" s="15" t="str">
+        <f t="shared" ref="CQ4:CQ20" si="57">IF((CO4&lt;CP4),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="CR4" s="20">
+        <f t="shared" ref="CR4:CR20" si="58">IF(CQ4="K1",CM4,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="CS4" s="20">
+        <f t="shared" ref="CS4:CS20" si="59">IF(CQ4="K1",CN4,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="CT4" s="20" t="str">
+        <f t="shared" ref="CT4:CT20" si="60">IF(CQ4="K2",CM4,"")</f>
+        <v/>
+      </c>
+      <c r="CU4" s="20" t="str">
+        <f t="shared" ref="CU4:CU20" si="61">IF(CQ4="K2",CN4,"")</f>
+        <v/>
+      </c>
+      <c r="CW4" s="16">
+        <v>2</v>
+      </c>
+      <c r="CX4" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="CY4" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="CZ4" s="20">
+        <f t="shared" ref="CZ4:CZ20" si="62">SQRT((CX4-CX$23)^2+(CY4-CY$23)^2)</f>
+        <v>1.6453378703341011</v>
+      </c>
+      <c r="DA4" s="20">
+        <f t="shared" ref="DA4:DA20" si="63">SQRT((CX4-CZ$23)^2+(CY4-DA$23)^2)</f>
+        <v>4.5392359822135511</v>
+      </c>
+      <c r="DB4" s="15" t="str">
+        <f t="shared" ref="DB4:DB20" si="64">IF((CZ4&lt;DA4),"K1","K2")</f>
+        <v>K1</v>
+      </c>
+      <c r="DC4" s="20">
+        <f t="shared" ref="DC4:DC20" si="65">IF(DB4="K1",CX4,"")</f>
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="DD4" s="20">
+        <f t="shared" ref="DD4:DD20" si="66">IF(DB4="K1",CY4,"")</f>
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="DE4" s="20" t="str">
+        <f t="shared" ref="DE4:DE20" si="67">IF(DB4="K2",CX4,"")</f>
+        <v/>
+      </c>
+      <c r="DF4" s="20" t="str">
+        <f t="shared" ref="DF4:DF20" si="68">IF(DB4="K2",CY4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="16">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20">
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="D5" s="20">
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="E5" s="20">
+        <f t="shared" ref="E4:E20" si="69">SQRT(($C5-$C$23)^2+($D5-$D$23)^2)</f>
+        <v>1.4427874645976102</v>
+      </c>
+      <c r="F5" s="20">
+        <f t="shared" si="0"/>
+        <v>5.1544351124056256</v>
+      </c>
+      <c r="G5" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>K1</v>
+      </c>
+      <c r="H5" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="I5" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="J5" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K5" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M5" s="16">
+        <v>3</v>
+      </c>
+      <c r="N5" s="20">
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="O5" s="20">
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="P5" s="20">
+        <f t="shared" si="6"/>
+        <v>1.4658595592878452</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" si="7"/>
+        <v>3.8260390183873221</v>
+      </c>
+      <c r="R5" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>K1</v>
+      </c>
+      <c r="S5" s="20">
+        <f t="shared" si="9"/>
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="T5" s="20">
+        <f t="shared" si="10"/>
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="U5" s="20" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V5" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="X5" s="16">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="Z5" s="20">
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="AA5" s="20">
+        <f t="shared" si="13"/>
+        <v>1.4658595592878452</v>
+      </c>
+      <c r="AB5" s="20">
+        <f t="shared" si="14"/>
+        <v>3.8260390183873221</v>
+      </c>
+      <c r="AC5" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>K1</v>
+      </c>
+      <c r="AD5" s="20">
+        <f t="shared" si="16"/>
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="AE5" s="20">
+        <f t="shared" si="17"/>
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="AF5" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AG5" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AI5" s="16">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="20">
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="AK5" s="20">
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="AL5" s="20">
+        <f t="shared" si="20"/>
+        <v>1.4658595592878452</v>
+      </c>
+      <c r="AM5" s="20">
+        <f t="shared" si="21"/>
+        <v>3.8260390183873221</v>
+      </c>
+      <c r="AN5" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>K1</v>
+      </c>
+      <c r="AO5" s="20">
+        <f t="shared" si="23"/>
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="AP5" s="20">
+        <f t="shared" si="24"/>
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="AQ5" s="20" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AR5" s="20" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AT5" s="16">
+        <v>3</v>
+      </c>
+      <c r="AU5" s="20">
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="AV5" s="20">
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="AW5" s="20">
+        <f t="shared" si="27"/>
+        <v>1.4658595592878452</v>
+      </c>
+      <c r="AX5" s="20">
+        <f t="shared" si="28"/>
+        <v>3.8260390183873221</v>
+      </c>
+      <c r="AY5" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>K1</v>
+      </c>
+      <c r="AZ5" s="20">
+        <f t="shared" si="30"/>
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="BA5" s="20">
+        <f t="shared" si="31"/>
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="BB5" s="20" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="BC5" s="20" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="BE5" s="16">
+        <v>3</v>
+      </c>
+      <c r="BF5" s="20">
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="BG5" s="20">
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="BH5" s="20">
+        <f t="shared" si="34"/>
+        <v>1.4658595592878452</v>
+      </c>
+      <c r="BI5" s="20">
+        <f t="shared" si="35"/>
+        <v>3.8260390183873221</v>
+      </c>
+      <c r="BJ5" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>K1</v>
+      </c>
+      <c r="BK5" s="20">
+        <f t="shared" si="37"/>
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="BL5" s="20">
+        <f t="shared" si="38"/>
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="BM5" s="20" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="BN5" s="20" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="BP5" s="16">
+        <v>3</v>
+      </c>
+      <c r="BQ5" s="20">
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="BR5" s="20">
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="BS5" s="20">
+        <f t="shared" si="41"/>
+        <v>1.4658595592878452</v>
+      </c>
+      <c r="BT5" s="20">
+        <f t="shared" si="42"/>
+        <v>3.8260390183873221</v>
+      </c>
+      <c r="BU5" s="15" t="str">
+        <f t="shared" si="43"/>
+        <v>K1</v>
+      </c>
+      <c r="BV5" s="20">
+        <f t="shared" si="44"/>
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="BW5" s="20">
+        <f t="shared" si="45"/>
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="BX5" s="20" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="BY5" s="20" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="CA5" s="16">
+        <v>3</v>
+      </c>
+      <c r="CB5" s="20">
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="CC5" s="20">
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="CD5" s="20">
+        <f t="shared" si="48"/>
+        <v>1.4658595592878452</v>
+      </c>
+      <c r="CE5" s="20">
+        <f t="shared" si="49"/>
+        <v>3.8260390183873221</v>
+      </c>
+      <c r="CF5" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>K1</v>
+      </c>
+      <c r="CG5" s="20">
+        <f t="shared" si="51"/>
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="CH5" s="20">
+        <f t="shared" si="52"/>
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="CI5" s="20" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="CJ5" s="20" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="CL5" s="16">
+        <v>3</v>
+      </c>
+      <c r="CM5" s="20">
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="CN5" s="20">
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="CO5" s="20">
+        <f t="shared" si="55"/>
+        <v>1.4658595592878452</v>
+      </c>
+      <c r="CP5" s="20">
+        <f t="shared" si="56"/>
+        <v>3.8260390183873221</v>
+      </c>
+      <c r="CQ5" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>K1</v>
+      </c>
+      <c r="CR5" s="20">
+        <f t="shared" si="58"/>
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="CS5" s="20">
+        <f t="shared" si="59"/>
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="CT5" s="20" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="CU5" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="CW5" s="16">
+        <v>3</v>
+      </c>
+      <c r="CX5" s="20">
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="CY5" s="20">
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="CZ5" s="20">
+        <f t="shared" si="62"/>
+        <v>1.4658595592878452</v>
+      </c>
+      <c r="DA5" s="20">
+        <f t="shared" si="63"/>
+        <v>3.8260390183873221</v>
+      </c>
+      <c r="DB5" s="15" t="str">
+        <f t="shared" si="64"/>
+        <v>K1</v>
+      </c>
+      <c r="DC5" s="20">
+        <f t="shared" si="65"/>
+        <v>-2.1839498730511191</v>
+      </c>
+      <c r="DD5" s="20">
+        <f t="shared" si="66"/>
+        <v>-1.2324370247602918</v>
+      </c>
+      <c r="DE5" s="20" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="DF5" s="20" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="16">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20">
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="D6" s="20">
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="69"/>
+        <v>1.0170853199215886</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="0"/>
+        <v>5.0051736001861116</v>
+      </c>
+      <c r="G6" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>K1</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="I6" s="20">
+        <f t="shared" si="3"/>
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="J6" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K6" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M6" s="16">
+        <v>4</v>
+      </c>
+      <c r="N6" s="20">
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="O6" s="20">
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="P6" s="20">
+        <f t="shared" si="6"/>
+        <v>0.6315886189249732</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" si="7"/>
+        <v>3.5318992525583486</v>
+      </c>
+      <c r="R6" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>K1</v>
+      </c>
+      <c r="S6" s="20">
+        <f t="shared" si="9"/>
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="T6" s="20">
+        <f t="shared" si="10"/>
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="U6" s="20" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V6" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="X6" s="16">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="20">
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="AA6" s="20">
+        <f t="shared" si="13"/>
+        <v>0.6315886189249732</v>
+      </c>
+      <c r="AB6" s="20">
+        <f t="shared" si="14"/>
+        <v>3.5318992525583486</v>
+      </c>
+      <c r="AC6" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>K1</v>
+      </c>
+      <c r="AD6" s="20">
+        <f t="shared" si="16"/>
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="AE6" s="20">
+        <f t="shared" si="17"/>
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="AF6" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AG6" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AI6" s="16">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="20">
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="AK6" s="20">
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="AL6" s="20">
+        <f t="shared" si="20"/>
+        <v>0.6315886189249732</v>
+      </c>
+      <c r="AM6" s="20">
+        <f t="shared" si="21"/>
+        <v>3.5318992525583486</v>
+      </c>
+      <c r="AN6" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>K1</v>
+      </c>
+      <c r="AO6" s="20">
+        <f t="shared" si="23"/>
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="AP6" s="20">
+        <f t="shared" si="24"/>
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="AQ6" s="20" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AR6" s="20" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AT6" s="16">
+        <v>4</v>
+      </c>
+      <c r="AU6" s="20">
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="AV6" s="20">
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="AW6" s="20">
+        <f t="shared" si="27"/>
+        <v>0.6315886189249732</v>
+      </c>
+      <c r="AX6" s="20">
+        <f t="shared" si="28"/>
+        <v>3.5318992525583486</v>
+      </c>
+      <c r="AY6" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>K1</v>
+      </c>
+      <c r="AZ6" s="20">
+        <f t="shared" si="30"/>
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="BA6" s="20">
+        <f t="shared" si="31"/>
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="BB6" s="20" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="BC6" s="20" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="BE6" s="16">
+        <v>4</v>
+      </c>
+      <c r="BF6" s="20">
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="BG6" s="20">
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="BH6" s="20">
+        <f t="shared" si="34"/>
+        <v>0.6315886189249732</v>
+      </c>
+      <c r="BI6" s="20">
+        <f t="shared" si="35"/>
+        <v>3.5318992525583486</v>
+      </c>
+      <c r="BJ6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>K1</v>
+      </c>
+      <c r="BK6" s="20">
+        <f t="shared" si="37"/>
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="BL6" s="20">
+        <f t="shared" si="38"/>
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="BM6" s="20" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="BN6" s="20" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="BP6" s="16">
+        <v>4</v>
+      </c>
+      <c r="BQ6" s="20">
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="BR6" s="20">
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="BS6" s="20">
+        <f t="shared" si="41"/>
+        <v>0.6315886189249732</v>
+      </c>
+      <c r="BT6" s="20">
+        <f t="shared" si="42"/>
+        <v>3.5318992525583486</v>
+      </c>
+      <c r="BU6" s="15" t="str">
+        <f t="shared" si="43"/>
+        <v>K1</v>
+      </c>
+      <c r="BV6" s="20">
+        <f t="shared" si="44"/>
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="BW6" s="20">
+        <f t="shared" si="45"/>
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="BX6" s="20" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="BY6" s="20" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="CA6" s="16">
+        <v>4</v>
+      </c>
+      <c r="CB6" s="20">
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="CC6" s="20">
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="CD6" s="20">
+        <f t="shared" si="48"/>
+        <v>0.6315886189249732</v>
+      </c>
+      <c r="CE6" s="20">
+        <f t="shared" si="49"/>
+        <v>3.5318992525583486</v>
+      </c>
+      <c r="CF6" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>K1</v>
+      </c>
+      <c r="CG6" s="20">
+        <f t="shared" si="51"/>
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="CH6" s="20">
+        <f t="shared" si="52"/>
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="CI6" s="20" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="CJ6" s="20" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="CL6" s="16">
+        <v>4</v>
+      </c>
+      <c r="CM6" s="20">
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="CN6" s="20">
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="CO6" s="20">
+        <f t="shared" si="55"/>
+        <v>0.6315886189249732</v>
+      </c>
+      <c r="CP6" s="20">
+        <f t="shared" si="56"/>
+        <v>3.5318992525583486</v>
+      </c>
+      <c r="CQ6" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>K1</v>
+      </c>
+      <c r="CR6" s="20">
+        <f t="shared" si="58"/>
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="CS6" s="20">
+        <f t="shared" si="59"/>
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="CT6" s="20" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="CU6" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="CW6" s="16">
+        <v>4</v>
+      </c>
+      <c r="CX6" s="20">
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="CY6" s="20">
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="CZ6" s="20">
+        <f t="shared" si="62"/>
+        <v>0.6315886189249732</v>
+      </c>
+      <c r="DA6" s="20">
+        <f t="shared" si="63"/>
+        <v>3.5318992525583486</v>
+      </c>
+      <c r="DB6" s="15" t="str">
+        <f t="shared" si="64"/>
+        <v>K1</v>
+      </c>
+      <c r="DC6" s="20">
+        <f t="shared" si="65"/>
+        <v>-2.0810027409881031</v>
+      </c>
+      <c r="DD6" s="20">
+        <f t="shared" si="66"/>
+        <v>3.1600949352827992E-2</v>
+      </c>
+      <c r="DE6" s="20" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="DF6" s="20" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="16">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20">
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="D7" s="20">
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="69"/>
+        <v>2.0220320205179734</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="0"/>
+        <v>4.0874396426124768</v>
+      </c>
+      <c r="G7" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>K1</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="J7" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K7" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M7" s="16">
+        <v>5</v>
+      </c>
+      <c r="N7" s="20">
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="O7" s="20">
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="P7" s="20">
+        <f t="shared" si="6"/>
+        <v>0.82975313410408735</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="7"/>
+        <v>2.7136274015093198</v>
+      </c>
+      <c r="R7" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>K1</v>
+      </c>
+      <c r="S7" s="20">
+        <f t="shared" si="9"/>
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="T7" s="20">
+        <f t="shared" si="10"/>
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="U7" s="20" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V7" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="X7" s="16">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="20">
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="Z7" s="20">
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="AA7" s="20">
+        <f t="shared" si="13"/>
+        <v>0.82975313410408735</v>
+      </c>
+      <c r="AB7" s="20">
+        <f t="shared" si="14"/>
+        <v>2.7136274015093198</v>
+      </c>
+      <c r="AC7" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>K1</v>
+      </c>
+      <c r="AD7" s="20">
+        <f t="shared" si="16"/>
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="AE7" s="20">
+        <f t="shared" si="17"/>
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="AF7" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AG7" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AI7" s="16">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="20">
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="AK7" s="20">
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="AL7" s="20">
+        <f t="shared" si="20"/>
+        <v>0.82975313410408735</v>
+      </c>
+      <c r="AM7" s="20">
+        <f t="shared" si="21"/>
+        <v>2.7136274015093198</v>
+      </c>
+      <c r="AN7" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>K1</v>
+      </c>
+      <c r="AO7" s="20">
+        <f t="shared" si="23"/>
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="AP7" s="20">
+        <f t="shared" si="24"/>
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="AQ7" s="20" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AR7" s="20" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AT7" s="16">
+        <v>5</v>
+      </c>
+      <c r="AU7" s="20">
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="AV7" s="20">
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="AW7" s="20">
+        <f t="shared" si="27"/>
+        <v>0.82975313410408735</v>
+      </c>
+      <c r="AX7" s="20">
+        <f t="shared" si="28"/>
+        <v>2.7136274015093198</v>
+      </c>
+      <c r="AY7" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>K1</v>
+      </c>
+      <c r="AZ7" s="20">
+        <f t="shared" si="30"/>
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="BA7" s="20">
+        <f t="shared" si="31"/>
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="BB7" s="20" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="BC7" s="20" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="BE7" s="16">
+        <v>5</v>
+      </c>
+      <c r="BF7" s="20">
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="BG7" s="20">
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="BH7" s="20">
+        <f t="shared" si="34"/>
+        <v>0.82975313410408735</v>
+      </c>
+      <c r="BI7" s="20">
+        <f t="shared" si="35"/>
+        <v>2.7136274015093198</v>
+      </c>
+      <c r="BJ7" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>K1</v>
+      </c>
+      <c r="BK7" s="20">
+        <f t="shared" si="37"/>
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="BL7" s="20">
+        <f t="shared" si="38"/>
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="BM7" s="20" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="BN7" s="20" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="BP7" s="16">
+        <v>5</v>
+      </c>
+      <c r="BQ7" s="20">
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="BR7" s="20">
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="BS7" s="20">
+        <f t="shared" si="41"/>
+        <v>0.82975313410408735</v>
+      </c>
+      <c r="BT7" s="20">
+        <f t="shared" si="42"/>
+        <v>2.7136274015093198</v>
+      </c>
+      <c r="BU7" s="15" t="str">
+        <f t="shared" si="43"/>
+        <v>K1</v>
+      </c>
+      <c r="BV7" s="20">
+        <f t="shared" si="44"/>
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="BW7" s="20">
+        <f t="shared" si="45"/>
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="BX7" s="20" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="BY7" s="20" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="CA7" s="16">
+        <v>5</v>
+      </c>
+      <c r="CB7" s="20">
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="CC7" s="20">
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="CD7" s="20">
+        <f t="shared" si="48"/>
+        <v>0.82975313410408735</v>
+      </c>
+      <c r="CE7" s="20">
+        <f t="shared" si="49"/>
+        <v>2.7136274015093198</v>
+      </c>
+      <c r="CF7" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>K1</v>
+      </c>
+      <c r="CG7" s="20">
+        <f t="shared" si="51"/>
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="CH7" s="20">
+        <f t="shared" si="52"/>
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="CI7" s="20" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="CJ7" s="20" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="CL7" s="16">
+        <v>5</v>
+      </c>
+      <c r="CM7" s="20">
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="CN7" s="20">
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="CO7" s="20">
+        <f t="shared" si="55"/>
+        <v>0.82975313410408735</v>
+      </c>
+      <c r="CP7" s="20">
+        <f t="shared" si="56"/>
+        <v>2.7136274015093198</v>
+      </c>
+      <c r="CQ7" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>K1</v>
+      </c>
+      <c r="CR7" s="20">
+        <f t="shared" si="58"/>
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="CS7" s="20">
+        <f t="shared" si="59"/>
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="CT7" s="20" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="CU7" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="CW7" s="16">
+        <v>5</v>
+      </c>
+      <c r="CX7" s="20">
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="CY7" s="20">
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="CZ7" s="20">
+        <f t="shared" si="62"/>
+        <v>0.82975313410408735</v>
+      </c>
+      <c r="DA7" s="20">
+        <f t="shared" si="63"/>
+        <v>2.7136274015093198</v>
+      </c>
+      <c r="DB7" s="15" t="str">
+        <f t="shared" si="64"/>
+        <v>K1</v>
+      </c>
+      <c r="DC7" s="20">
+        <f t="shared" si="65"/>
+        <v>-1.1691852855728215</v>
+      </c>
+      <c r="DD7" s="20">
+        <f t="shared" si="66"/>
+        <v>-0.744879520459517</v>
+      </c>
+      <c r="DE7" s="20" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="DF7" s="20" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="16">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20">
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="69"/>
+        <v>2.1076463859006327</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="0"/>
+        <v>3.9634389749307357</v>
+      </c>
+      <c r="G8" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>K1</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="3"/>
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="J8" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K8" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M8" s="16">
+        <v>6</v>
+      </c>
+      <c r="N8" s="20">
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="O8" s="20">
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="P8" s="20">
+        <f t="shared" si="6"/>
+        <v>0.48096896735190248</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="7"/>
+        <v>2.4715670555787526</v>
+      </c>
+      <c r="R8" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>K1</v>
+      </c>
+      <c r="S8" s="20">
+        <f t="shared" si="9"/>
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="T8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="U8" s="20" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V8" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="X8" s="16">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="20">
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="Z8" s="20">
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="AA8" s="20">
+        <f t="shared" si="13"/>
+        <v>0.48096896735190248</v>
+      </c>
+      <c r="AB8" s="20">
+        <f t="shared" si="14"/>
+        <v>2.4715670555787526</v>
+      </c>
+      <c r="AC8" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>K1</v>
+      </c>
+      <c r="AD8" s="20">
+        <f t="shared" si="16"/>
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="AE8" s="20">
+        <f t="shared" si="17"/>
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="AF8" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AG8" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AI8" s="16">
+        <v>6</v>
+      </c>
+      <c r="AJ8" s="20">
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="AK8" s="20">
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="AL8" s="20">
+        <f t="shared" si="20"/>
+        <v>0.48096896735190248</v>
+      </c>
+      <c r="AM8" s="20">
+        <f t="shared" si="21"/>
+        <v>2.4715670555787526</v>
+      </c>
+      <c r="AN8" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>K1</v>
+      </c>
+      <c r="AO8" s="20">
+        <f t="shared" si="23"/>
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="AP8" s="20">
+        <f t="shared" si="24"/>
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="AQ8" s="20" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AR8" s="20" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AT8" s="16">
+        <v>6</v>
+      </c>
+      <c r="AU8" s="20">
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="AV8" s="20">
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="AW8" s="20">
+        <f t="shared" si="27"/>
+        <v>0.48096896735190248</v>
+      </c>
+      <c r="AX8" s="20">
+        <f t="shared" si="28"/>
+        <v>2.4715670555787526</v>
+      </c>
+      <c r="AY8" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>K1</v>
+      </c>
+      <c r="AZ8" s="20">
+        <f t="shared" si="30"/>
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="BA8" s="20">
+        <f t="shared" si="31"/>
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="BB8" s="20" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="BC8" s="20" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="BE8" s="16">
+        <v>6</v>
+      </c>
+      <c r="BF8" s="20">
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="BG8" s="20">
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="BH8" s="20">
+        <f t="shared" si="34"/>
+        <v>0.48096896735190248</v>
+      </c>
+      <c r="BI8" s="20">
+        <f t="shared" si="35"/>
+        <v>2.4715670555787526</v>
+      </c>
+      <c r="BJ8" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>K1</v>
+      </c>
+      <c r="BK8" s="20">
+        <f t="shared" si="37"/>
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="BL8" s="20">
+        <f t="shared" si="38"/>
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="BM8" s="20" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="BN8" s="20" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="BP8" s="16">
+        <v>6</v>
+      </c>
+      <c r="BQ8" s="20">
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="BR8" s="20">
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="BS8" s="20">
+        <f t="shared" si="41"/>
+        <v>0.48096896735190248</v>
+      </c>
+      <c r="BT8" s="20">
+        <f t="shared" si="42"/>
+        <v>2.4715670555787526</v>
+      </c>
+      <c r="BU8" s="15" t="str">
+        <f t="shared" si="43"/>
+        <v>K1</v>
+      </c>
+      <c r="BV8" s="20">
+        <f t="shared" si="44"/>
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="BW8" s="20">
+        <f t="shared" si="45"/>
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="BX8" s="20" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="BY8" s="20" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="CA8" s="16">
+        <v>6</v>
+      </c>
+      <c r="CB8" s="20">
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="CC8" s="20">
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="CD8" s="20">
+        <f t="shared" si="48"/>
+        <v>0.48096896735190248</v>
+      </c>
+      <c r="CE8" s="20">
+        <f t="shared" si="49"/>
+        <v>2.4715670555787526</v>
+      </c>
+      <c r="CF8" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>K1</v>
+      </c>
+      <c r="CG8" s="20">
+        <f t="shared" si="51"/>
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="CH8" s="20">
+        <f t="shared" si="52"/>
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="CI8" s="20" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="CJ8" s="20" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="CL8" s="16">
+        <v>6</v>
+      </c>
+      <c r="CM8" s="20">
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="CN8" s="20">
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="CO8" s="20">
+        <f t="shared" si="55"/>
+        <v>0.48096896735190248</v>
+      </c>
+      <c r="CP8" s="20">
+        <f t="shared" si="56"/>
+        <v>2.4715670555787526</v>
+      </c>
+      <c r="CQ8" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>K1</v>
+      </c>
+      <c r="CR8" s="20">
+        <f t="shared" si="58"/>
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="CS8" s="20">
+        <f t="shared" si="59"/>
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="CT8" s="20" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="CU8" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="CW8" s="16">
+        <v>6</v>
+      </c>
+      <c r="CX8" s="20">
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="CY8" s="20">
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="CZ8" s="20">
+        <f t="shared" si="62"/>
+        <v>0.48096896735190248</v>
+      </c>
+      <c r="DA8" s="20">
+        <f t="shared" si="63"/>
+        <v>2.4715670555787526</v>
+      </c>
+      <c r="DB8" s="15" t="str">
+        <f t="shared" si="64"/>
+        <v>K1</v>
+      </c>
+      <c r="DC8" s="20">
+        <f t="shared" si="65"/>
+        <v>-1.0074112209023682</v>
+      </c>
+      <c r="DD8" s="20">
+        <f t="shared" si="66"/>
+        <v>0.22572106680591425</v>
+      </c>
+      <c r="DE8" s="20" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="DF8" s="20" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="16">
+        <v>7</v>
+      </c>
+      <c r="C9" s="20">
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="D9" s="20">
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="69"/>
+        <v>3.0463188362349722</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="0"/>
+        <v>3.1963753772046237</v>
+      </c>
+      <c r="G9" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>K1</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" si="2"/>
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="J9" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K9" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M9" s="16">
+        <v>7</v>
+      </c>
+      <c r="N9" s="20">
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="O9" s="20">
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="P9" s="20">
+        <f t="shared" si="6"/>
+        <v>1.6891882617267846</v>
+      </c>
+      <c r="Q9" s="20">
+        <f t="shared" si="7"/>
+        <v>1.9827610431472127</v>
+      </c>
+      <c r="R9" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>K1</v>
+      </c>
+      <c r="S9" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="T9" s="20">
+        <f t="shared" si="10"/>
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="U9" s="20" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V9" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="X9" s="16">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="Z9" s="20">
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="AA9" s="20">
+        <f t="shared" si="13"/>
+        <v>1.6891882617267846</v>
+      </c>
+      <c r="AB9" s="20">
+        <f t="shared" si="14"/>
+        <v>1.9827610431472127</v>
+      </c>
+      <c r="AC9" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>K1</v>
+      </c>
+      <c r="AD9" s="20">
+        <f t="shared" si="16"/>
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="AE9" s="20">
+        <f t="shared" si="17"/>
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="AF9" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AG9" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AI9" s="16">
+        <v>7</v>
+      </c>
+      <c r="AJ9" s="20">
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="AK9" s="20">
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="AL9" s="20">
+        <f t="shared" si="20"/>
+        <v>1.6891882617267846</v>
+      </c>
+      <c r="AM9" s="20">
+        <f t="shared" si="21"/>
+        <v>1.9827610431472127</v>
+      </c>
+      <c r="AN9" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>K1</v>
+      </c>
+      <c r="AO9" s="20">
+        <f t="shared" si="23"/>
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="AP9" s="20">
+        <f t="shared" si="24"/>
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="AQ9" s="20" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AR9" s="20" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AT9" s="16">
+        <v>7</v>
+      </c>
+      <c r="AU9" s="20">
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="AV9" s="20">
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="AW9" s="20">
+        <f t="shared" si="27"/>
+        <v>1.6891882617267846</v>
+      </c>
+      <c r="AX9" s="20">
+        <f t="shared" si="28"/>
+        <v>1.9827610431472127</v>
+      </c>
+      <c r="AY9" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>K1</v>
+      </c>
+      <c r="AZ9" s="20">
+        <f t="shared" si="30"/>
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="BA9" s="20">
+        <f t="shared" si="31"/>
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="BB9" s="20" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="BC9" s="20" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="BE9" s="16">
+        <v>7</v>
+      </c>
+      <c r="BF9" s="20">
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="BG9" s="20">
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="BH9" s="20">
+        <f t="shared" si="34"/>
+        <v>1.6891882617267846</v>
+      </c>
+      <c r="BI9" s="20">
+        <f t="shared" si="35"/>
+        <v>1.9827610431472127</v>
+      </c>
+      <c r="BJ9" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>K1</v>
+      </c>
+      <c r="BK9" s="20">
+        <f t="shared" si="37"/>
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="BL9" s="20">
+        <f t="shared" si="38"/>
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="BM9" s="20" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="BN9" s="20" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="BP9" s="16">
+        <v>7</v>
+      </c>
+      <c r="BQ9" s="20">
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="BR9" s="20">
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="BS9" s="20">
+        <f t="shared" si="41"/>
+        <v>1.6891882617267846</v>
+      </c>
+      <c r="BT9" s="20">
+        <f t="shared" si="42"/>
+        <v>1.9827610431472127</v>
+      </c>
+      <c r="BU9" s="15" t="str">
+        <f t="shared" si="43"/>
+        <v>K1</v>
+      </c>
+      <c r="BV9" s="20">
+        <f t="shared" si="44"/>
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="BW9" s="20">
+        <f t="shared" si="45"/>
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="BX9" s="20" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="BY9" s="20" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="CA9" s="16">
+        <v>7</v>
+      </c>
+      <c r="CB9" s="20">
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="CC9" s="20">
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="CD9" s="20">
+        <f t="shared" si="48"/>
+        <v>1.6891882617267846</v>
+      </c>
+      <c r="CE9" s="20">
+        <f t="shared" si="49"/>
+        <v>1.9827610431472127</v>
+      </c>
+      <c r="CF9" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>K1</v>
+      </c>
+      <c r="CG9" s="20">
+        <f t="shared" si="51"/>
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="CH9" s="20">
+        <f t="shared" si="52"/>
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="CI9" s="20" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="CJ9" s="20" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="CL9" s="16">
+        <v>7</v>
+      </c>
+      <c r="CM9" s="20">
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="CN9" s="20">
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="CO9" s="20">
+        <f t="shared" si="55"/>
+        <v>1.6891882617267846</v>
+      </c>
+      <c r="CP9" s="20">
+        <f t="shared" si="56"/>
+        <v>1.9827610431472127</v>
+      </c>
+      <c r="CQ9" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>K1</v>
+      </c>
+      <c r="CR9" s="20">
+        <f t="shared" si="58"/>
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="CS9" s="20">
+        <f t="shared" si="59"/>
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="CT9" s="20" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="CU9" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="CW9" s="16">
+        <v>7</v>
+      </c>
+      <c r="CX9" s="20">
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="CY9" s="20">
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="CZ9" s="20">
+        <f t="shared" si="62"/>
+        <v>1.6891882617267846</v>
+      </c>
+      <c r="DA9" s="20">
+        <f t="shared" si="63"/>
+        <v>1.9827610431472127</v>
+      </c>
+      <c r="DB9" s="15" t="str">
+        <f t="shared" si="64"/>
+        <v>K1</v>
+      </c>
+      <c r="DC9" s="20">
+        <f t="shared" si="65"/>
+        <v>-0.21324763070196115</v>
+      </c>
+      <c r="DD9" s="20">
+        <f t="shared" si="66"/>
+        <v>-1.1150620700212164</v>
+      </c>
+      <c r="DE9" s="20" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="DF9" s="20" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="16">
+        <v>8</v>
+      </c>
+      <c r="C10" s="20">
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1.110547648685098</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="69"/>
+        <v>3.1906948572372129</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="0"/>
+        <v>3.4032720625891786</v>
+      </c>
+      <c r="G10" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>K1</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="2"/>
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="3"/>
+        <v>1.110547648685098</v>
+      </c>
+      <c r="J10" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K10" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M10" s="16">
+        <v>8</v>
+      </c>
+      <c r="N10" s="20">
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="O10" s="20">
+        <v>1.110547648685098</v>
+      </c>
+      <c r="P10" s="20">
+        <f t="shared" si="6"/>
+        <v>1.6940370372443323</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" si="7"/>
+        <v>1.9603093873728765</v>
+      </c>
+      <c r="R10" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>K1</v>
+      </c>
+      <c r="S10" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="T10" s="20">
+        <f t="shared" si="10"/>
+        <v>1.110547648685098</v>
+      </c>
+      <c r="U10" s="20" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V10" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="X10" s="16">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="Z10" s="20">
+        <v>1.110547648685098</v>
+      </c>
+      <c r="AA10" s="20">
+        <f t="shared" si="13"/>
+        <v>1.6940370372443323</v>
+      </c>
+      <c r="AB10" s="20">
+        <f t="shared" si="14"/>
+        <v>1.9603093873728765</v>
+      </c>
+      <c r="AC10" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>K1</v>
+      </c>
+      <c r="AD10" s="20">
+        <f t="shared" si="16"/>
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="AE10" s="20">
+        <f t="shared" si="17"/>
+        <v>1.110547648685098</v>
+      </c>
+      <c r="AF10" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AG10" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AI10" s="16">
+        <v>8</v>
+      </c>
+      <c r="AJ10" s="20">
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="AK10" s="20">
+        <v>1.110547648685098</v>
+      </c>
+      <c r="AL10" s="20">
+        <f t="shared" si="20"/>
+        <v>1.6940370372443323</v>
+      </c>
+      <c r="AM10" s="20">
+        <f t="shared" si="21"/>
+        <v>1.9603093873728765</v>
+      </c>
+      <c r="AN10" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>K1</v>
+      </c>
+      <c r="AO10" s="20">
+        <f t="shared" si="23"/>
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="AP10" s="20">
+        <f t="shared" si="24"/>
+        <v>1.110547648685098</v>
+      </c>
+      <c r="AQ10" s="20" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AR10" s="20" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AT10" s="16">
+        <v>8</v>
+      </c>
+      <c r="AU10" s="20">
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="AV10" s="20">
+        <v>1.110547648685098</v>
+      </c>
+      <c r="AW10" s="20">
+        <f t="shared" si="27"/>
+        <v>1.6940370372443323</v>
+      </c>
+      <c r="AX10" s="20">
+        <f t="shared" si="28"/>
+        <v>1.9603093873728765</v>
+      </c>
+      <c r="AY10" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>K1</v>
+      </c>
+      <c r="AZ10" s="20">
+        <f t="shared" si="30"/>
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="BA10" s="20">
+        <f t="shared" si="31"/>
+        <v>1.110547648685098</v>
+      </c>
+      <c r="BB10" s="20" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="BC10" s="20" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="BE10" s="16">
+        <v>8</v>
+      </c>
+      <c r="BF10" s="20">
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="BG10" s="20">
+        <v>1.110547648685098</v>
+      </c>
+      <c r="BH10" s="20">
+        <f t="shared" si="34"/>
+        <v>1.6940370372443323</v>
+      </c>
+      <c r="BI10" s="20">
+        <f t="shared" si="35"/>
+        <v>1.9603093873728765</v>
+      </c>
+      <c r="BJ10" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>K1</v>
+      </c>
+      <c r="BK10" s="20">
+        <f t="shared" si="37"/>
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="BL10" s="20">
+        <f t="shared" si="38"/>
+        <v>1.110547648685098</v>
+      </c>
+      <c r="BM10" s="20" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="BN10" s="20" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="BP10" s="16">
+        <v>8</v>
+      </c>
+      <c r="BQ10" s="20">
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="BR10" s="20">
+        <v>1.110547648685098</v>
+      </c>
+      <c r="BS10" s="20">
+        <f t="shared" si="41"/>
+        <v>1.6940370372443323</v>
+      </c>
+      <c r="BT10" s="20">
+        <f t="shared" si="42"/>
+        <v>1.9603093873728765</v>
+      </c>
+      <c r="BU10" s="15" t="str">
+        <f t="shared" si="43"/>
+        <v>K1</v>
+      </c>
+      <c r="BV10" s="20">
+        <f t="shared" si="44"/>
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="BW10" s="20">
+        <f t="shared" si="45"/>
+        <v>1.110547648685098</v>
+      </c>
+      <c r="BX10" s="20" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="BY10" s="20" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="CA10" s="16">
+        <v>8</v>
+      </c>
+      <c r="CB10" s="20">
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="CC10" s="20">
+        <v>1.110547648685098</v>
+      </c>
+      <c r="CD10" s="20">
+        <f t="shared" si="48"/>
+        <v>1.6940370372443323</v>
+      </c>
+      <c r="CE10" s="20">
+        <f t="shared" si="49"/>
+        <v>1.9603093873728765</v>
+      </c>
+      <c r="CF10" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>K1</v>
+      </c>
+      <c r="CG10" s="20">
+        <f t="shared" si="51"/>
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="CH10" s="20">
+        <f t="shared" si="52"/>
+        <v>1.110547648685098</v>
+      </c>
+      <c r="CI10" s="20" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="CJ10" s="20" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="CL10" s="16">
+        <v>8</v>
+      </c>
+      <c r="CM10" s="20">
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="CN10" s="20">
+        <v>1.110547648685098</v>
+      </c>
+      <c r="CO10" s="20">
+        <f t="shared" si="55"/>
+        <v>1.6940370372443323</v>
+      </c>
+      <c r="CP10" s="20">
+        <f t="shared" si="56"/>
+        <v>1.9603093873728765</v>
+      </c>
+      <c r="CQ10" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>K1</v>
+      </c>
+      <c r="CR10" s="20">
+        <f t="shared" si="58"/>
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="CS10" s="20">
+        <f t="shared" si="59"/>
+        <v>1.110547648685098</v>
+      </c>
+      <c r="CT10" s="20" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="CU10" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="CW10" s="16">
+        <v>8</v>
+      </c>
+      <c r="CX10" s="20">
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="CY10" s="20">
+        <v>1.110547648685098</v>
+      </c>
+      <c r="CZ10" s="20">
+        <f t="shared" si="62"/>
+        <v>1.6940370372443323</v>
+      </c>
+      <c r="DA10" s="20">
+        <f t="shared" si="63"/>
+        <v>1.9603093873728765</v>
+      </c>
+      <c r="DB10" s="15" t="str">
+        <f t="shared" si="64"/>
+        <v>K1</v>
+      </c>
+      <c r="DC10" s="20">
+        <f t="shared" si="65"/>
+        <v>-0.13971396494266419</v>
+      </c>
+      <c r="DD10" s="20">
+        <f t="shared" si="66"/>
+        <v>1.110547648685098</v>
+      </c>
+      <c r="DE10" s="20" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="DF10" s="20" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="16">
+        <v>9</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="69"/>
+        <v>4.2399608172717818</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="0"/>
+        <v>2.2654532508970475</v>
+      </c>
+      <c r="G11" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>K2</v>
+      </c>
+      <c r="H11" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" si="4"/>
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" si="5"/>
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="M11" s="16">
+        <v>9</v>
+      </c>
+      <c r="N11" s="20">
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="O11" s="20">
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="P11" s="20">
+        <f t="shared" si="6"/>
+        <v>2.6227788971919752</v>
+      </c>
+      <c r="Q11" s="20">
+        <f t="shared" si="7"/>
+        <v>0.99714123083052908</v>
+      </c>
+      <c r="R11" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>K2</v>
+      </c>
+      <c r="S11" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T11" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="U11" s="20">
+        <f t="shared" si="11"/>
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="V11" s="20">
+        <f t="shared" si="12"/>
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="X11" s="16">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="20">
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="Z11" s="20">
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="AA11" s="20">
+        <f t="shared" si="13"/>
+        <v>2.6227788971919752</v>
+      </c>
+      <c r="AB11" s="20">
+        <f t="shared" si="14"/>
+        <v>0.99714123083052908</v>
+      </c>
+      <c r="AC11" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>K2</v>
+      </c>
+      <c r="AD11" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AE11" s="20" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AF11" s="20">
+        <f t="shared" si="18"/>
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="AG11" s="20">
+        <f t="shared" si="19"/>
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="AI11" s="16">
+        <v>9</v>
+      </c>
+      <c r="AJ11" s="20">
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="AK11" s="20">
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="AL11" s="20">
+        <f t="shared" si="20"/>
+        <v>2.6227788971919752</v>
+      </c>
+      <c r="AM11" s="20">
+        <f t="shared" si="21"/>
+        <v>0.99714123083052908</v>
+      </c>
+      <c r="AN11" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>K2</v>
+      </c>
+      <c r="AO11" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AP11" s="20" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ11" s="20">
+        <f t="shared" si="25"/>
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="AR11" s="20">
+        <f t="shared" si="26"/>
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="AT11" s="16">
+        <v>9</v>
+      </c>
+      <c r="AU11" s="20">
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="AV11" s="20">
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="AW11" s="20">
+        <f t="shared" si="27"/>
+        <v>2.6227788971919752</v>
+      </c>
+      <c r="AX11" s="20">
+        <f t="shared" si="28"/>
+        <v>0.99714123083052908</v>
+      </c>
+      <c r="AY11" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>K2</v>
+      </c>
+      <c r="AZ11" s="20" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="BA11" s="20" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="BB11" s="20">
+        <f t="shared" si="32"/>
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="BC11" s="20">
+        <f t="shared" si="33"/>
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="BE11" s="16">
+        <v>9</v>
+      </c>
+      <c r="BF11" s="20">
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="BG11" s="20">
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="BH11" s="20">
+        <f t="shared" si="34"/>
+        <v>2.6227788971919752</v>
+      </c>
+      <c r="BI11" s="20">
+        <f t="shared" si="35"/>
+        <v>0.99714123083052908</v>
+      </c>
+      <c r="BJ11" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>K2</v>
+      </c>
+      <c r="BK11" s="20" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="BL11" s="20" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="BM11" s="20">
+        <f t="shared" si="39"/>
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="BN11" s="20">
+        <f t="shared" si="40"/>
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="BP11" s="16">
+        <v>9</v>
+      </c>
+      <c r="BQ11" s="20">
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="BR11" s="20">
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="BS11" s="20">
+        <f t="shared" si="41"/>
+        <v>2.6227788971919752</v>
+      </c>
+      <c r="BT11" s="20">
+        <f t="shared" si="42"/>
+        <v>0.99714123083052908</v>
+      </c>
+      <c r="BU11" s="15" t="str">
+        <f t="shared" si="43"/>
+        <v>K2</v>
+      </c>
+      <c r="BV11" s="20" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="BW11" s="20" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="BX11" s="20">
+        <f t="shared" si="46"/>
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="BY11" s="20">
+        <f t="shared" si="47"/>
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="CA11" s="16">
+        <v>9</v>
+      </c>
+      <c r="CB11" s="20">
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="CC11" s="20">
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="CD11" s="20">
+        <f t="shared" si="48"/>
+        <v>2.6227788971919752</v>
+      </c>
+      <c r="CE11" s="20">
+        <f t="shared" si="49"/>
+        <v>0.99714123083052908</v>
+      </c>
+      <c r="CF11" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>K2</v>
+      </c>
+      <c r="CG11" s="20" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="CH11" s="20" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="CI11" s="20">
+        <f t="shared" si="53"/>
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="CJ11" s="20">
+        <f t="shared" si="54"/>
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="CL11" s="16">
+        <v>9</v>
+      </c>
+      <c r="CM11" s="20">
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="CN11" s="20">
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="CO11" s="20">
+        <f t="shared" si="55"/>
+        <v>2.6227788971919752</v>
+      </c>
+      <c r="CP11" s="20">
+        <f t="shared" si="56"/>
+        <v>0.99714123083052908</v>
+      </c>
+      <c r="CQ11" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>K2</v>
+      </c>
+      <c r="CR11" s="20" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="CS11" s="20" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="CT11" s="20">
+        <f t="shared" si="60"/>
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="CU11" s="20">
+        <f t="shared" si="61"/>
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="CW11" s="16">
+        <v>9</v>
+      </c>
+      <c r="CX11" s="20">
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="CY11" s="20">
+        <v>0.87128331787082902</v>
+      </c>
+      <c r="CZ11" s="20">
+        <f t="shared" si="62"/>
+        <v>2.6227788971919752</v>
+      </c>
+      <c r="DA11" s="20">
+        <f t="shared" si="63"/>
+        <v>0.99714123083052908</v>
+      </c>
+      <c r="DB11" s="15" t="str">
+        <f t="shared" si="64"/>
+        <v>K2</v>
+      </c>
+      <c r="DC11" s="20" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="DD11" s="20" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="DE11" s="20">
+        <f t="shared" si="67"/>
+        <v>1.0368246872060869</v>
+      </c>
+      <c r="DF11" s="20">
+        <f t="shared" si="68"/>
+        <v>0.87128331787082902</v>
+      </c>
+    </row>
+    <row r="12" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="16">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="E12" s="20">
+        <f>SQRT(($C12-$C$23)^2+($D12-$D$23)^2)</f>
+        <v>4.0506265061098876</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="0"/>
+        <v>3.0457923290992772</v>
+      </c>
+      <c r="G12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>K2</v>
+      </c>
+      <c r="H12" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I12" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" si="4"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" si="5"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="M12" s="16">
+        <v>10</v>
+      </c>
+      <c r="N12" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="O12" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="P12" s="20">
+        <f t="shared" si="6"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="Q12" s="20">
+        <f t="shared" si="7"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="R12" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>K2</v>
+      </c>
+      <c r="S12" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T12" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="U12" s="20">
+        <f t="shared" si="11"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="V12" s="20">
+        <f t="shared" si="12"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="X12" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="Z12" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="AA12" s="20">
+        <f t="shared" si="13"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="AB12" s="20">
+        <f t="shared" si="14"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="AC12" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>K2</v>
+      </c>
+      <c r="AD12" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AE12" s="20" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AF12" s="20">
+        <f t="shared" si="18"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="AG12" s="20">
+        <f t="shared" si="19"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="AI12" s="16">
+        <v>10</v>
+      </c>
+      <c r="AJ12" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="AK12" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="AL12" s="20">
+        <f t="shared" si="20"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="AM12" s="20">
+        <f t="shared" si="21"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="AN12" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>K2</v>
+      </c>
+      <c r="AO12" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AP12" s="20" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ12" s="20">
+        <f t="shared" si="25"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="AR12" s="20">
+        <f t="shared" si="26"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="AT12" s="16">
+        <v>10</v>
+      </c>
+      <c r="AU12" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="AV12" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="AW12" s="20">
+        <f t="shared" si="27"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="AX12" s="20">
+        <f t="shared" si="28"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="AY12" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>K2</v>
+      </c>
+      <c r="AZ12" s="20" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="BA12" s="20" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="BB12" s="20">
+        <f t="shared" si="32"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="BC12" s="20">
+        <f t="shared" si="33"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="BE12" s="16">
+        <v>10</v>
+      </c>
+      <c r="BF12" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="BG12" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="BH12" s="20">
+        <f t="shared" si="34"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="BI12" s="20">
+        <f t="shared" si="35"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="BJ12" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>K2</v>
+      </c>
+      <c r="BK12" s="20" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="BL12" s="20" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="BM12" s="20">
+        <f t="shared" si="39"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="BN12" s="20">
+        <f t="shared" si="40"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="BP12" s="16">
+        <v>10</v>
+      </c>
+      <c r="BQ12" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="BR12" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="BS12" s="20">
+        <f t="shared" si="41"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="BT12" s="20">
+        <f t="shared" si="42"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="BU12" s="15" t="str">
+        <f t="shared" si="43"/>
+        <v>K2</v>
+      </c>
+      <c r="BV12" s="20" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="BW12" s="20" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="BX12" s="20">
+        <f t="shared" si="46"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="BY12" s="20">
+        <f t="shared" si="47"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="CA12" s="16">
+        <v>10</v>
+      </c>
+      <c r="CB12" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="CC12" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="CD12" s="20">
+        <f t="shared" si="48"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="CE12" s="20">
+        <f t="shared" si="49"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="CF12" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>K2</v>
+      </c>
+      <c r="CG12" s="20" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="CH12" s="20" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="CI12" s="20">
+        <f t="shared" si="53"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="CJ12" s="20">
+        <f t="shared" si="54"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="CL12" s="16">
+        <v>10</v>
+      </c>
+      <c r="CM12" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="CN12" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="CO12" s="20">
+        <f t="shared" si="55"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="CP12" s="20">
+        <f t="shared" si="56"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="CQ12" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>K2</v>
+      </c>
+      <c r="CR12" s="20" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="CS12" s="20" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="CT12" s="20">
+        <f t="shared" si="60"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="CU12" s="20">
+        <f t="shared" si="61"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="CW12" s="16">
+        <v>10</v>
+      </c>
+      <c r="CX12" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="CY12" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="CZ12" s="20">
+        <f t="shared" si="62"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="DA12" s="20">
+        <f t="shared" si="63"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="DB12" s="15" t="str">
+        <f t="shared" si="64"/>
+        <v>K2</v>
+      </c>
+      <c r="DC12" s="20" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="DD12" s="20" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="DE12" s="20">
+        <f t="shared" si="67"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="DF12" s="20">
+        <f t="shared" si="68"/>
+        <v>1.5755330463052812</v>
+      </c>
+    </row>
+    <row r="13" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="16">
+        <v>11</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="69"/>
+        <v>4.0506265061098876</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="0"/>
+        <v>3.0457923290992772</v>
+      </c>
+      <c r="G13" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>K2</v>
+      </c>
+      <c r="H13" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I13" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="4"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="5"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="M13" s="16">
+        <v>11</v>
+      </c>
+      <c r="N13" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="O13" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="P13" s="20">
+        <f t="shared" si="6"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" si="7"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="R13" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>K2</v>
+      </c>
+      <c r="S13" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T13" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="U13" s="20">
+        <f t="shared" si="11"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="V13" s="20">
+        <f t="shared" si="12"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="X13" s="16">
+        <v>11</v>
+      </c>
+      <c r="Y13" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="Z13" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="AA13" s="20">
+        <f t="shared" si="13"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="AB13" s="20">
+        <f t="shared" si="14"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="AC13" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>K2</v>
+      </c>
+      <c r="AD13" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AE13" s="20" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AF13" s="20">
+        <f t="shared" si="18"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="AG13" s="20">
+        <f t="shared" si="19"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="AI13" s="16">
+        <v>11</v>
+      </c>
+      <c r="AJ13" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="AK13" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="AL13" s="20">
+        <f t="shared" si="20"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="AM13" s="20">
+        <f t="shared" si="21"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="AN13" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>K2</v>
+      </c>
+      <c r="AO13" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AP13" s="20" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ13" s="20">
+        <f t="shared" si="25"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="AR13" s="20">
+        <f t="shared" si="26"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="AT13" s="16">
+        <v>11</v>
+      </c>
+      <c r="AU13" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="AV13" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="AW13" s="20">
+        <f t="shared" si="27"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="AX13" s="20">
+        <f t="shared" si="28"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="AY13" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>K2</v>
+      </c>
+      <c r="AZ13" s="20" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="BA13" s="20" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="BB13" s="20">
+        <f t="shared" si="32"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="BC13" s="20">
+        <f t="shared" si="33"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="BE13" s="16">
+        <v>11</v>
+      </c>
+      <c r="BF13" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="BG13" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="BH13" s="20">
+        <f t="shared" si="34"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="BI13" s="20">
+        <f t="shared" si="35"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="BJ13" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>K2</v>
+      </c>
+      <c r="BK13" s="20" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="BL13" s="20" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="BM13" s="20">
+        <f t="shared" si="39"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="BN13" s="20">
+        <f t="shared" si="40"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="BP13" s="16">
+        <v>11</v>
+      </c>
+      <c r="BQ13" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="BR13" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="BS13" s="20">
+        <f t="shared" si="41"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="BT13" s="20">
+        <f t="shared" si="42"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="BU13" s="15" t="str">
+        <f t="shared" si="43"/>
+        <v>K2</v>
+      </c>
+      <c r="BV13" s="20" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="BW13" s="20" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="BX13" s="20">
+        <f t="shared" si="46"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="BY13" s="20">
+        <f t="shared" si="47"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="CA13" s="16">
+        <v>11</v>
+      </c>
+      <c r="CB13" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="CC13" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="CD13" s="20">
+        <f t="shared" si="48"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="CE13" s="20">
+        <f t="shared" si="49"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="CF13" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>K2</v>
+      </c>
+      <c r="CG13" s="20" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="CH13" s="20" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="CI13" s="20">
+        <f t="shared" si="53"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="CJ13" s="20">
+        <f t="shared" si="54"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="CL13" s="16">
+        <v>11</v>
+      </c>
+      <c r="CM13" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="CN13" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="CO13" s="20">
+        <f t="shared" si="55"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="CP13" s="20">
+        <f t="shared" si="56"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="CQ13" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>K2</v>
+      </c>
+      <c r="CR13" s="20" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="CS13" s="20" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="CT13" s="20">
+        <f t="shared" si="60"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="CU13" s="20">
+        <f t="shared" si="61"/>
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="CW13" s="16">
+        <v>11</v>
+      </c>
+      <c r="CX13" s="20">
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="CY13" s="20">
+        <v>1.5755330463052812</v>
+      </c>
+      <c r="CZ13" s="20">
+        <f t="shared" si="62"/>
+        <v>2.5596969241602716</v>
+      </c>
+      <c r="DA13" s="20">
+        <f t="shared" si="63"/>
+        <v>1.8242241732370017</v>
+      </c>
+      <c r="DB13" s="15" t="str">
+        <f t="shared" si="64"/>
+        <v>K2</v>
+      </c>
+      <c r="DC13" s="20" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="DD13" s="20" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="DE13" s="20">
+        <f t="shared" si="67"/>
+        <v>0.59562269265030532</v>
+      </c>
+      <c r="DF13" s="20">
+        <f t="shared" si="68"/>
+        <v>1.5755330463052812</v>
+      </c>
+    </row>
+    <row r="14" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="16">
+        <v>12</v>
+      </c>
+      <c r="C14" s="20">
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="D14" s="20">
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="69"/>
+        <v>3.8377285052489056</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="0"/>
+        <v>4.0044683067793159</v>
+      </c>
+      <c r="G14" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>K1</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="2"/>
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="I14" s="20">
+        <f t="shared" si="3"/>
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="J14" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K14" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M14" s="16">
+        <v>12</v>
+      </c>
+      <c r="N14" s="20">
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="O14" s="20">
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="P14" s="20">
+        <f t="shared" si="6"/>
+        <v>2.6204093396940022</v>
+      </c>
+      <c r="Q14" s="20">
+        <f t="shared" si="7"/>
+        <v>2.7609321654510497</v>
+      </c>
+      <c r="R14" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>K1</v>
+      </c>
+      <c r="S14" s="20">
+        <f t="shared" si="9"/>
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="T14" s="20">
+        <f t="shared" si="10"/>
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="U14" s="20" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V14" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="X14" s="16">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="20">
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="Z14" s="20">
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="AA14" s="20">
+        <f t="shared" si="13"/>
+        <v>2.6204093396940022</v>
+      </c>
+      <c r="AB14" s="20">
+        <f t="shared" si="14"/>
+        <v>2.7609321654510497</v>
+      </c>
+      <c r="AC14" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>K1</v>
+      </c>
+      <c r="AD14" s="20">
+        <f t="shared" si="16"/>
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="AE14" s="20">
+        <f t="shared" si="17"/>
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="AF14" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AG14" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AI14" s="16">
+        <v>12</v>
+      </c>
+      <c r="AJ14" s="20">
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="AK14" s="20">
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="AL14" s="20">
+        <f t="shared" si="20"/>
+        <v>2.6204093396940022</v>
+      </c>
+      <c r="AM14" s="20">
+        <f t="shared" si="21"/>
+        <v>2.7609321654510497</v>
+      </c>
+      <c r="AN14" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>K1</v>
+      </c>
+      <c r="AO14" s="20">
+        <f t="shared" si="23"/>
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="AP14" s="20">
+        <f t="shared" si="24"/>
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="AQ14" s="20" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AR14" s="20" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AT14" s="16">
+        <v>12</v>
+      </c>
+      <c r="AU14" s="20">
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="AV14" s="20">
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="AW14" s="20">
+        <f t="shared" si="27"/>
+        <v>2.6204093396940022</v>
+      </c>
+      <c r="AX14" s="20">
+        <f t="shared" si="28"/>
+        <v>2.7609321654510497</v>
+      </c>
+      <c r="AY14" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>K1</v>
+      </c>
+      <c r="AZ14" s="20">
+        <f t="shared" si="30"/>
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="BA14" s="20">
+        <f t="shared" si="31"/>
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="BB14" s="20" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="BC14" s="20" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="BE14" s="16">
+        <v>12</v>
+      </c>
+      <c r="BF14" s="20">
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="BG14" s="20">
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="BH14" s="20">
+        <f t="shared" si="34"/>
+        <v>2.6204093396940022</v>
+      </c>
+      <c r="BI14" s="20">
+        <f t="shared" si="35"/>
+        <v>2.7609321654510497</v>
+      </c>
+      <c r="BJ14" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>K1</v>
+      </c>
+      <c r="BK14" s="20">
+        <f t="shared" si="37"/>
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="BL14" s="20">
+        <f t="shared" si="38"/>
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="BM14" s="20" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="BN14" s="20" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="BP14" s="16">
+        <v>12</v>
+      </c>
+      <c r="BQ14" s="20">
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="BR14" s="20">
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="BS14" s="20">
+        <f t="shared" si="41"/>
+        <v>2.6204093396940022</v>
+      </c>
+      <c r="BT14" s="20">
+        <f t="shared" si="42"/>
+        <v>2.7609321654510497</v>
+      </c>
+      <c r="BU14" s="15" t="str">
+        <f t="shared" si="43"/>
+        <v>K1</v>
+      </c>
+      <c r="BV14" s="20">
+        <f t="shared" si="44"/>
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="BW14" s="20">
+        <f t="shared" si="45"/>
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="BX14" s="20" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="BY14" s="20" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="CA14" s="16">
+        <v>12</v>
+      </c>
+      <c r="CB14" s="20">
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="CC14" s="20">
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="CD14" s="20">
+        <f t="shared" si="48"/>
+        <v>2.6204093396940022</v>
+      </c>
+      <c r="CE14" s="20">
+        <f t="shared" si="49"/>
+        <v>2.7609321654510497</v>
+      </c>
+      <c r="CF14" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>K1</v>
+      </c>
+      <c r="CG14" s="20">
+        <f t="shared" si="51"/>
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="CH14" s="20">
+        <f t="shared" si="52"/>
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="CI14" s="20" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="CJ14" s="20" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="CL14" s="16">
+        <v>12</v>
+      </c>
+      <c r="CM14" s="20">
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="CN14" s="20">
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="CO14" s="20">
+        <f t="shared" si="55"/>
+        <v>2.6204093396940022</v>
+      </c>
+      <c r="CP14" s="20">
+        <f t="shared" si="56"/>
+        <v>2.7609321654510497</v>
+      </c>
+      <c r="CQ14" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>K1</v>
+      </c>
+      <c r="CR14" s="20">
+        <f t="shared" si="58"/>
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="CS14" s="20">
+        <f t="shared" si="59"/>
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="CT14" s="20" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="CU14" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="CW14" s="16">
+        <v>12</v>
+      </c>
+      <c r="CX14" s="20">
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="CY14" s="20">
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="CZ14" s="20">
+        <f t="shared" si="62"/>
+        <v>2.6204093396940022</v>
+      </c>
+      <c r="DA14" s="20">
+        <f t="shared" si="63"/>
+        <v>2.7609321654510497</v>
+      </c>
+      <c r="DB14" s="15" t="str">
+        <f t="shared" si="64"/>
+        <v>K1</v>
+      </c>
+      <c r="DC14" s="20">
+        <f t="shared" si="65"/>
+        <v>-7.3533665759296943E-2</v>
+      </c>
+      <c r="DD14" s="20">
+        <f t="shared" si="66"/>
+        <v>2.2662395107313791</v>
+      </c>
+      <c r="DE14" s="20" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="DF14" s="20" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="16">
+        <v>13</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="D15" s="20">
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="69"/>
+        <v>4.1824447888764764</v>
+      </c>
+      <c r="F15" s="20">
+        <f t="shared" si="0"/>
+        <v>2.3587688975395622</v>
+      </c>
+      <c r="G15" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>K2</v>
+      </c>
+      <c r="H15" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I15" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" si="4"/>
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="K15" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="M15" s="16">
+        <v>13</v>
+      </c>
+      <c r="N15" s="20">
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="O15" s="20">
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="P15" s="20">
+        <f t="shared" si="6"/>
+        <v>2.7828891346145208</v>
+      </c>
+      <c r="Q15" s="20">
+        <f t="shared" si="7"/>
+        <v>1.6314548213855702</v>
+      </c>
+      <c r="R15" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>K2</v>
+      </c>
+      <c r="S15" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T15" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="U15" s="20">
+        <f t="shared" si="11"/>
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="V15" s="20">
+        <f t="shared" si="12"/>
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="X15" s="16">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="20">
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="Z15" s="20">
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="AA15" s="20">
+        <f t="shared" si="13"/>
+        <v>2.7828891346145208</v>
+      </c>
+      <c r="AB15" s="20">
+        <f t="shared" si="14"/>
+        <v>1.6314548213855702</v>
+      </c>
+      <c r="AC15" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>K2</v>
+      </c>
+      <c r="AD15" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AE15" s="20" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AF15" s="20">
+        <f t="shared" si="18"/>
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="AG15" s="20">
+        <f t="shared" si="19"/>
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="AI15" s="16">
+        <v>13</v>
+      </c>
+      <c r="AJ15" s="20">
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="AK15" s="20">
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="AL15" s="20">
+        <f t="shared" si="20"/>
+        <v>2.7828891346145208</v>
+      </c>
+      <c r="AM15" s="20">
+        <f t="shared" si="21"/>
+        <v>1.6314548213855702</v>
+      </c>
+      <c r="AN15" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>K2</v>
+      </c>
+      <c r="AO15" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AP15" s="20" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ15" s="20">
+        <f t="shared" si="25"/>
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="AR15" s="20">
+        <f t="shared" si="26"/>
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="AT15" s="16">
+        <v>13</v>
+      </c>
+      <c r="AU15" s="20">
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="AV15" s="20">
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="AW15" s="20">
+        <f t="shared" si="27"/>
+        <v>2.7828891346145208</v>
+      </c>
+      <c r="AX15" s="20">
+        <f t="shared" si="28"/>
+        <v>1.6314548213855702</v>
+      </c>
+      <c r="AY15" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>K2</v>
+      </c>
+      <c r="AZ15" s="20" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="BA15" s="20" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="BB15" s="20">
+        <f t="shared" si="32"/>
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="BC15" s="20">
+        <f t="shared" si="33"/>
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="BE15" s="16">
+        <v>13</v>
+      </c>
+      <c r="BF15" s="20">
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="BG15" s="20">
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="BH15" s="20">
+        <f t="shared" si="34"/>
+        <v>2.7828891346145208</v>
+      </c>
+      <c r="BI15" s="20">
+        <f t="shared" si="35"/>
+        <v>1.6314548213855702</v>
+      </c>
+      <c r="BJ15" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>K2</v>
+      </c>
+      <c r="BK15" s="20" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="BL15" s="20" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="BM15" s="20">
+        <f t="shared" si="39"/>
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="BN15" s="20">
+        <f t="shared" si="40"/>
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="BP15" s="16">
+        <v>13</v>
+      </c>
+      <c r="BQ15" s="20">
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="BR15" s="20">
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="BS15" s="20">
+        <f t="shared" si="41"/>
+        <v>2.7828891346145208</v>
+      </c>
+      <c r="BT15" s="20">
+        <f t="shared" si="42"/>
+        <v>1.6314548213855702</v>
+      </c>
+      <c r="BU15" s="15" t="str">
+        <f t="shared" si="43"/>
+        <v>K2</v>
+      </c>
+      <c r="BV15" s="20" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="BW15" s="20" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="BX15" s="20">
+        <f t="shared" si="46"/>
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="BY15" s="20">
+        <f t="shared" si="47"/>
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="CA15" s="16">
+        <v>13</v>
+      </c>
+      <c r="CB15" s="20">
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="CC15" s="20">
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="CD15" s="20">
+        <f t="shared" si="48"/>
+        <v>2.7828891346145208</v>
+      </c>
+      <c r="CE15" s="20">
+        <f t="shared" si="49"/>
+        <v>1.6314548213855702</v>
+      </c>
+      <c r="CF15" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>K2</v>
+      </c>
+      <c r="CG15" s="20" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="CH15" s="20" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="CI15" s="20">
+        <f t="shared" si="53"/>
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="CJ15" s="20">
+        <f t="shared" si="54"/>
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="CL15" s="16">
+        <v>13</v>
+      </c>
+      <c r="CM15" s="20">
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="CN15" s="20">
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="CO15" s="20">
+        <f t="shared" si="55"/>
+        <v>2.7828891346145208</v>
+      </c>
+      <c r="CP15" s="20">
+        <f t="shared" si="56"/>
+        <v>1.6314548213855702</v>
+      </c>
+      <c r="CQ15" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>K2</v>
+      </c>
+      <c r="CR15" s="20" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="CS15" s="20" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="CT15" s="20">
+        <f t="shared" si="60"/>
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="CU15" s="20">
+        <f t="shared" si="61"/>
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="CW15" s="16">
+        <v>13</v>
+      </c>
+      <c r="CX15" s="20">
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="CY15" s="20">
+        <v>-1.5484465182885718</v>
+      </c>
+      <c r="CZ15" s="20">
+        <f t="shared" si="62"/>
+        <v>2.7828891346145208</v>
+      </c>
+      <c r="DA15" s="20">
+        <f t="shared" si="63"/>
+        <v>1.6314548213855702</v>
+      </c>
+      <c r="DB15" s="15" t="str">
+        <f t="shared" si="64"/>
+        <v>K2</v>
+      </c>
+      <c r="DC15" s="20" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="DD15" s="20" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="DE15" s="20">
+        <f t="shared" si="67"/>
+        <v>0.83828378965598516</v>
+      </c>
+      <c r="DF15" s="20">
+        <f t="shared" si="68"/>
+        <v>-1.5484465182885718</v>
+      </c>
+    </row>
+    <row r="16" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="D16" s="20">
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="69"/>
+        <v>4.8900908805460865</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="0"/>
+        <v>1.1524846549954582</v>
+      </c>
+      <c r="G16" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>K2</v>
+      </c>
+      <c r="H16" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I16" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" si="4"/>
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" si="5"/>
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="M16" s="16">
+        <v>14</v>
+      </c>
+      <c r="N16" s="20">
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="O16" s="20">
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="P16" s="20">
+        <f t="shared" si="6"/>
+        <v>3.2529634869693136</v>
+      </c>
+      <c r="Q16" s="20">
+        <f t="shared" si="7"/>
+        <v>0.35366905748484995</v>
+      </c>
+      <c r="R16" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>K2</v>
+      </c>
+      <c r="S16" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T16" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="U16" s="20">
+        <f t="shared" si="11"/>
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="V16" s="20">
+        <f t="shared" si="12"/>
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="X16" s="16">
+        <v>14</v>
+      </c>
+      <c r="Y16" s="20">
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="Z16" s="20">
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="AA16" s="20">
+        <f t="shared" si="13"/>
+        <v>3.2529634869693136</v>
+      </c>
+      <c r="AB16" s="20">
+        <f t="shared" si="14"/>
+        <v>0.35366905748484995</v>
+      </c>
+      <c r="AC16" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>K2</v>
+      </c>
+      <c r="AD16" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AE16" s="20" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AF16" s="20">
+        <f t="shared" si="18"/>
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="AG16" s="20">
+        <f t="shared" si="19"/>
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="AI16" s="16">
+        <v>14</v>
+      </c>
+      <c r="AJ16" s="20">
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="AK16" s="20">
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="AL16" s="20">
+        <f t="shared" si="20"/>
+        <v>3.2529634869693136</v>
+      </c>
+      <c r="AM16" s="20">
+        <f t="shared" si="21"/>
+        <v>0.35366905748484995</v>
+      </c>
+      <c r="AN16" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>K2</v>
+      </c>
+      <c r="AO16" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AP16" s="20" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ16" s="20">
+        <f t="shared" si="25"/>
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="AR16" s="20">
+        <f t="shared" si="26"/>
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="AT16" s="16">
+        <v>14</v>
+      </c>
+      <c r="AU16" s="20">
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="AV16" s="20">
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="AW16" s="20">
+        <f t="shared" si="27"/>
+        <v>3.2529634869693136</v>
+      </c>
+      <c r="AX16" s="20">
+        <f t="shared" si="28"/>
+        <v>0.35366905748484995</v>
+      </c>
+      <c r="AY16" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>K2</v>
+      </c>
+      <c r="AZ16" s="20" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="BA16" s="20" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="BB16" s="20">
+        <f t="shared" si="32"/>
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="BC16" s="20">
+        <f t="shared" si="33"/>
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="BE16" s="16">
+        <v>14</v>
+      </c>
+      <c r="BF16" s="20">
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="BG16" s="20">
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="BH16" s="20">
+        <f t="shared" si="34"/>
+        <v>3.2529634869693136</v>
+      </c>
+      <c r="BI16" s="20">
+        <f t="shared" si="35"/>
+        <v>0.35366905748484995</v>
+      </c>
+      <c r="BJ16" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>K2</v>
+      </c>
+      <c r="BK16" s="20" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="BL16" s="20" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="BM16" s="20">
+        <f t="shared" si="39"/>
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="BN16" s="20">
+        <f t="shared" si="40"/>
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="BP16" s="16">
+        <v>14</v>
+      </c>
+      <c r="BQ16" s="20">
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="BR16" s="20">
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="BS16" s="20">
+        <f t="shared" si="41"/>
+        <v>3.2529634869693136</v>
+      </c>
+      <c r="BT16" s="20">
+        <f t="shared" si="42"/>
+        <v>0.35366905748484995</v>
+      </c>
+      <c r="BU16" s="15" t="str">
+        <f t="shared" si="43"/>
+        <v>K2</v>
+      </c>
+      <c r="BV16" s="20" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="BW16" s="20" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="BX16" s="20">
+        <f t="shared" si="46"/>
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="BY16" s="20">
+        <f t="shared" si="47"/>
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="CA16" s="16">
+        <v>14</v>
+      </c>
+      <c r="CB16" s="20">
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="CC16" s="20">
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="CD16" s="20">
+        <f t="shared" si="48"/>
+        <v>3.2529634869693136</v>
+      </c>
+      <c r="CE16" s="20">
+        <f t="shared" si="49"/>
+        <v>0.35366905748484995</v>
+      </c>
+      <c r="CF16" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>K2</v>
+      </c>
+      <c r="CG16" s="20" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="CH16" s="20" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="CI16" s="20">
+        <f t="shared" si="53"/>
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="CJ16" s="20">
+        <f t="shared" si="54"/>
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="CL16" s="16">
+        <v>14</v>
+      </c>
+      <c r="CM16" s="20">
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="CN16" s="20">
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="CO16" s="20">
+        <f t="shared" si="55"/>
+        <v>3.2529634869693136</v>
+      </c>
+      <c r="CP16" s="20">
+        <f t="shared" si="56"/>
+        <v>0.35366905748484995</v>
+      </c>
+      <c r="CQ16" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>K2</v>
+      </c>
+      <c r="CR16" s="20" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="CS16" s="20" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="CT16" s="20">
+        <f t="shared" si="60"/>
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="CU16" s="20">
+        <f t="shared" si="61"/>
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="CW16" s="16">
+        <v>14</v>
+      </c>
+      <c r="CX16" s="20">
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="CY16" s="20">
+        <v>-7.6745162714010842E-2</v>
+      </c>
+      <c r="CZ16" s="20">
+        <f t="shared" si="62"/>
+        <v>3.2529634869693136</v>
+      </c>
+      <c r="DA16" s="20">
+        <f t="shared" si="63"/>
+        <v>0.35366905748484995</v>
+      </c>
+      <c r="DB16" s="15" t="str">
+        <f t="shared" si="64"/>
+        <v>K2</v>
+      </c>
+      <c r="DC16" s="20" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="DD16" s="20" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="DE16" s="20">
+        <f t="shared" si="67"/>
+        <v>1.8015748111027752</v>
+      </c>
+      <c r="DF16" s="20">
+        <f t="shared" si="68"/>
+        <v>-7.6745162714010842E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="16">
+        <v>15</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="D17" s="20">
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="69"/>
+        <v>4.880012876212521</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="0"/>
+        <v>1.3678710216975871</v>
+      </c>
+      <c r="G17" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>K2</v>
+      </c>
+      <c r="H17" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I17" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="4"/>
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="K17" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="M17" s="16">
+        <v>15</v>
+      </c>
+      <c r="N17" s="20">
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="O17" s="20">
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="P17" s="20">
+        <f t="shared" si="6"/>
+        <v>3.3322369488911732</v>
+      </c>
+      <c r="Q17" s="20">
+        <f t="shared" si="7"/>
+        <v>1.0500579480305943</v>
+      </c>
+      <c r="R17" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>K2</v>
+      </c>
+      <c r="S17" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T17" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="U17" s="20">
+        <f t="shared" si="11"/>
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="V17" s="20">
+        <f t="shared" si="12"/>
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="X17" s="16">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="20">
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="Z17" s="20">
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="AA17" s="20">
+        <f t="shared" si="13"/>
+        <v>3.3322369488911732</v>
+      </c>
+      <c r="AB17" s="20">
+        <f t="shared" si="14"/>
+        <v>1.0500579480305943</v>
+      </c>
+      <c r="AC17" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>K2</v>
+      </c>
+      <c r="AD17" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AE17" s="20" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AF17" s="20">
+        <f t="shared" si="18"/>
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="AG17" s="20">
+        <f t="shared" si="19"/>
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="AI17" s="16">
+        <v>15</v>
+      </c>
+      <c r="AJ17" s="20">
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="AK17" s="20">
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="AL17" s="20">
+        <f t="shared" si="20"/>
+        <v>3.3322369488911732</v>
+      </c>
+      <c r="AM17" s="20">
+        <f t="shared" si="21"/>
+        <v>1.0500579480305943</v>
+      </c>
+      <c r="AN17" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>K2</v>
+      </c>
+      <c r="AO17" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AP17" s="20" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ17" s="20">
+        <f t="shared" si="25"/>
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="AR17" s="20">
+        <f t="shared" si="26"/>
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="AT17" s="16">
+        <v>15</v>
+      </c>
+      <c r="AU17" s="20">
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="AV17" s="20">
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="AW17" s="20">
+        <f t="shared" si="27"/>
+        <v>3.3322369488911732</v>
+      </c>
+      <c r="AX17" s="20">
+        <f t="shared" si="28"/>
+        <v>1.0500579480305943</v>
+      </c>
+      <c r="AY17" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>K2</v>
+      </c>
+      <c r="AZ17" s="20" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="BA17" s="20" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="BB17" s="20">
+        <f t="shared" si="32"/>
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="BC17" s="20">
+        <f t="shared" si="33"/>
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="BE17" s="16">
+        <v>15</v>
+      </c>
+      <c r="BF17" s="20">
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="BG17" s="20">
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="BH17" s="20">
+        <f t="shared" si="34"/>
+        <v>3.3322369488911732</v>
+      </c>
+      <c r="BI17" s="20">
+        <f t="shared" si="35"/>
+        <v>1.0500579480305943</v>
+      </c>
+      <c r="BJ17" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>K2</v>
+      </c>
+      <c r="BK17" s="20" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="BL17" s="20" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="BM17" s="20">
+        <f t="shared" si="39"/>
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="BN17" s="20">
+        <f t="shared" si="40"/>
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="BP17" s="16">
+        <v>15</v>
+      </c>
+      <c r="BQ17" s="20">
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="BR17" s="20">
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="BS17" s="20">
+        <f t="shared" si="41"/>
+        <v>3.3322369488911732</v>
+      </c>
+      <c r="BT17" s="20">
+        <f t="shared" si="42"/>
+        <v>1.0500579480305943</v>
+      </c>
+      <c r="BU17" s="15" t="str">
+        <f t="shared" si="43"/>
+        <v>K2</v>
+      </c>
+      <c r="BV17" s="20" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="BW17" s="20" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="BX17" s="20">
+        <f t="shared" si="46"/>
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="BY17" s="20">
+        <f t="shared" si="47"/>
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="CA17" s="16">
+        <v>15</v>
+      </c>
+      <c r="CB17" s="20">
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="CC17" s="20">
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="CD17" s="20">
+        <f t="shared" si="48"/>
+        <v>3.3322369488911732</v>
+      </c>
+      <c r="CE17" s="20">
+        <f t="shared" si="49"/>
+        <v>1.0500579480305943</v>
+      </c>
+      <c r="CF17" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>K2</v>
+      </c>
+      <c r="CG17" s="20" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="CH17" s="20" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="CI17" s="20">
+        <f t="shared" si="53"/>
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="CJ17" s="20">
+        <f t="shared" si="54"/>
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="CL17" s="16">
+        <v>15</v>
+      </c>
+      <c r="CM17" s="20">
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="CN17" s="20">
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="CO17" s="20">
+        <f t="shared" si="55"/>
+        <v>3.3322369488911732</v>
+      </c>
+      <c r="CP17" s="20">
+        <f t="shared" si="56"/>
+        <v>1.0500579480305943</v>
+      </c>
+      <c r="CQ17" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>K2</v>
+      </c>
+      <c r="CR17" s="20" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="CS17" s="20" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="CT17" s="20">
+        <f t="shared" si="60"/>
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="CU17" s="20">
+        <f t="shared" si="61"/>
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="CW17" s="16">
+        <v>15</v>
+      </c>
+      <c r="CX17" s="20">
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="CY17" s="20">
+        <v>-1.0563745926516788</v>
+      </c>
+      <c r="CZ17" s="20">
+        <f t="shared" si="62"/>
+        <v>3.3322369488911732</v>
+      </c>
+      <c r="DA17" s="20">
+        <f t="shared" si="63"/>
+        <v>1.0500579480305943</v>
+      </c>
+      <c r="DB17" s="15" t="str">
+        <f t="shared" si="64"/>
+        <v>K2</v>
+      </c>
+      <c r="DC17" s="20" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="DD17" s="20" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="DE17" s="20">
+        <f t="shared" si="67"/>
+        <v>1.6986276790397594</v>
+      </c>
+      <c r="DF17" s="20">
+        <f t="shared" si="68"/>
+        <v>-1.0563745926516788</v>
+      </c>
+    </row>
+    <row r="18" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="16">
+        <v>16</v>
+      </c>
+      <c r="C18" s="20">
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="D18" s="20">
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="69"/>
+        <v>4.9418108288359237</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="0"/>
+        <v>1.0794194773117636</v>
+      </c>
+      <c r="G18" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>K2</v>
+      </c>
+      <c r="H18" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I18" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="4"/>
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" si="5"/>
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="M18" s="16">
+        <v>16</v>
+      </c>
+      <c r="N18" s="20">
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="O18" s="20">
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="P18" s="20">
+        <f t="shared" si="6"/>
+        <v>3.3087209951211594</v>
+      </c>
+      <c r="Q18" s="20">
+        <f t="shared" si="7"/>
+        <v>0.42354254830208254</v>
+      </c>
+      <c r="R18" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>K2</v>
+      </c>
+      <c r="S18" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T18" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="U18" s="20">
+        <f t="shared" si="11"/>
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="V18" s="20">
+        <f t="shared" si="12"/>
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="X18" s="16">
+        <v>16</v>
+      </c>
+      <c r="Y18" s="20">
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="Z18" s="20">
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="AA18" s="20">
+        <f t="shared" si="13"/>
+        <v>3.3087209951211594</v>
+      </c>
+      <c r="AB18" s="20">
+        <f t="shared" si="14"/>
+        <v>0.42354254830208254</v>
+      </c>
+      <c r="AC18" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>K2</v>
+      </c>
+      <c r="AD18" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AE18" s="20" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AF18" s="20">
+        <f t="shared" si="18"/>
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="AG18" s="20">
+        <f t="shared" si="19"/>
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="AI18" s="16">
+        <v>16</v>
+      </c>
+      <c r="AJ18" s="20">
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="AK18" s="20">
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="AL18" s="20">
+        <f t="shared" si="20"/>
+        <v>3.3087209951211594</v>
+      </c>
+      <c r="AM18" s="20">
+        <f t="shared" si="21"/>
+        <v>0.42354254830208254</v>
+      </c>
+      <c r="AN18" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>K2</v>
+      </c>
+      <c r="AO18" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AP18" s="20" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ18" s="20">
+        <f t="shared" si="25"/>
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="AR18" s="20">
+        <f t="shared" si="26"/>
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="AT18" s="16">
+        <v>16</v>
+      </c>
+      <c r="AU18" s="20">
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="AV18" s="20">
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="AW18" s="20">
+        <f t="shared" si="27"/>
+        <v>3.3087209951211594</v>
+      </c>
+      <c r="AX18" s="20">
+        <f t="shared" si="28"/>
+        <v>0.42354254830208254</v>
+      </c>
+      <c r="AY18" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>K2</v>
+      </c>
+      <c r="AZ18" s="20" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="BA18" s="20" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="BB18" s="20">
+        <f t="shared" si="32"/>
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="BC18" s="20">
+        <f t="shared" si="33"/>
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="BE18" s="16">
+        <v>16</v>
+      </c>
+      <c r="BF18" s="20">
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="BG18" s="20">
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="BH18" s="20">
+        <f t="shared" si="34"/>
+        <v>3.3087209951211594</v>
+      </c>
+      <c r="BI18" s="20">
+        <f t="shared" si="35"/>
+        <v>0.42354254830208254</v>
+      </c>
+      <c r="BJ18" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>K2</v>
+      </c>
+      <c r="BK18" s="20" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="BL18" s="20" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="BM18" s="20">
+        <f t="shared" si="39"/>
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="BN18" s="20">
+        <f t="shared" si="40"/>
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="BP18" s="16">
+        <v>16</v>
+      </c>
+      <c r="BQ18" s="20">
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="BR18" s="20">
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="BS18" s="20">
+        <f t="shared" si="41"/>
+        <v>3.3087209951211594</v>
+      </c>
+      <c r="BT18" s="20">
+        <f t="shared" si="42"/>
+        <v>0.42354254830208254</v>
+      </c>
+      <c r="BU18" s="15" t="str">
+        <f t="shared" si="43"/>
+        <v>K2</v>
+      </c>
+      <c r="BV18" s="20" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="BW18" s="20" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="BX18" s="20">
+        <f t="shared" si="46"/>
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="BY18" s="20">
+        <f t="shared" si="47"/>
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="CA18" s="16">
+        <v>16</v>
+      </c>
+      <c r="CB18" s="20">
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="CC18" s="20">
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="CD18" s="20">
+        <f t="shared" si="48"/>
+        <v>3.3087209951211594</v>
+      </c>
+      <c r="CE18" s="20">
+        <f t="shared" si="49"/>
+        <v>0.42354254830208254</v>
+      </c>
+      <c r="CF18" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>K2</v>
+      </c>
+      <c r="CG18" s="20" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="CH18" s="20" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="CI18" s="20">
+        <f t="shared" si="53"/>
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="CJ18" s="20">
+        <f t="shared" si="54"/>
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="CL18" s="16">
+        <v>16</v>
+      </c>
+      <c r="CM18" s="20">
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="CN18" s="20">
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="CO18" s="20">
+        <f t="shared" si="55"/>
+        <v>3.3087209951211594</v>
+      </c>
+      <c r="CP18" s="20">
+        <f t="shared" si="56"/>
+        <v>0.42354254830208254</v>
+      </c>
+      <c r="CQ18" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>K2</v>
+      </c>
+      <c r="CR18" s="20" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="CS18" s="20" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="CT18" s="20">
+        <f t="shared" si="60"/>
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="CU18" s="20">
+        <f t="shared" si="61"/>
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="CW18" s="16">
+        <v>16</v>
+      </c>
+      <c r="CX18" s="20">
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="CY18" s="20">
+        <v>-0.16703358943637653</v>
+      </c>
+      <c r="CZ18" s="20">
+        <f t="shared" si="62"/>
+        <v>3.3087209951211594</v>
+      </c>
+      <c r="DA18" s="20">
+        <f t="shared" si="63"/>
+        <v>0.42354254830208254</v>
+      </c>
+      <c r="DB18" s="15" t="str">
+        <f t="shared" si="64"/>
+        <v>K2</v>
+      </c>
+      <c r="DC18" s="20" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="DD18" s="20" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="DE18" s="20">
+        <f t="shared" si="67"/>
+        <v>1.8530483771342829</v>
+      </c>
+      <c r="DF18" s="20">
+        <f t="shared" si="68"/>
+        <v>-0.16703358943637653</v>
+      </c>
+    </row>
+    <row r="19" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="16">
+        <v>17</v>
+      </c>
+      <c r="C19" s="20">
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="69"/>
+        <v>4.9150700524000666</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="0"/>
+        <v>1.3574951933616564</v>
+      </c>
+      <c r="G19" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>K2</v>
+      </c>
+      <c r="H19" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I19" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="4"/>
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="M19" s="16">
+        <v>17</v>
+      </c>
+      <c r="N19" s="20">
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="O19" s="20">
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="P19" s="20">
+        <f t="shared" si="6"/>
+        <v>3.3704457995279431</v>
+      </c>
+      <c r="Q19" s="20">
+        <f t="shared" si="7"/>
+        <v>1.0879242814746906</v>
+      </c>
+      <c r="R19" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>K2</v>
+      </c>
+      <c r="S19" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T19" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="U19" s="20">
+        <f t="shared" si="11"/>
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="V19" s="20">
+        <f t="shared" si="12"/>
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="X19" s="16">
+        <v>17</v>
+      </c>
+      <c r="Y19" s="20">
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="Z19" s="20">
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="AA19" s="20">
+        <f t="shared" si="13"/>
+        <v>3.3704457995279431</v>
+      </c>
+      <c r="AB19" s="20">
+        <f t="shared" si="14"/>
+        <v>1.0879242814746906</v>
+      </c>
+      <c r="AC19" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>K2</v>
+      </c>
+      <c r="AD19" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AE19" s="20" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AF19" s="20">
+        <f t="shared" si="18"/>
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="AG19" s="20">
+        <f t="shared" si="19"/>
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="AI19" s="16">
+        <v>17</v>
+      </c>
+      <c r="AJ19" s="20">
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="AK19" s="20">
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="AL19" s="20">
+        <f t="shared" si="20"/>
+        <v>3.3704457995279431</v>
+      </c>
+      <c r="AM19" s="20">
+        <f t="shared" si="21"/>
+        <v>1.0879242814746906</v>
+      </c>
+      <c r="AN19" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>K2</v>
+      </c>
+      <c r="AO19" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AP19" s="20" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ19" s="20">
+        <f t="shared" si="25"/>
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="AR19" s="20">
+        <f t="shared" si="26"/>
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="AT19" s="16">
+        <v>17</v>
+      </c>
+      <c r="AU19" s="20">
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="AV19" s="20">
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="AW19" s="20">
+        <f t="shared" si="27"/>
+        <v>3.3704457995279431</v>
+      </c>
+      <c r="AX19" s="20">
+        <f t="shared" si="28"/>
+        <v>1.0879242814746906</v>
+      </c>
+      <c r="AY19" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>K2</v>
+      </c>
+      <c r="AZ19" s="20" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="BA19" s="20" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="BB19" s="20">
+        <f t="shared" si="32"/>
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="BC19" s="20">
+        <f t="shared" si="33"/>
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="BE19" s="16">
+        <v>17</v>
+      </c>
+      <c r="BF19" s="20">
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="BG19" s="20">
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="BH19" s="20">
+        <f t="shared" si="34"/>
+        <v>3.3704457995279431</v>
+      </c>
+      <c r="BI19" s="20">
+        <f t="shared" si="35"/>
+        <v>1.0879242814746906</v>
+      </c>
+      <c r="BJ19" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>K2</v>
+      </c>
+      <c r="BK19" s="20" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="BL19" s="20" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="BM19" s="20">
+        <f t="shared" si="39"/>
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="BN19" s="20">
+        <f t="shared" si="40"/>
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="BP19" s="16">
+        <v>17</v>
+      </c>
+      <c r="BQ19" s="20">
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="BR19" s="20">
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="BS19" s="20">
+        <f t="shared" si="41"/>
+        <v>3.3704457995279431</v>
+      </c>
+      <c r="BT19" s="20">
+        <f t="shared" si="42"/>
+        <v>1.0879242814746906</v>
+      </c>
+      <c r="BU19" s="15" t="str">
+        <f t="shared" si="43"/>
+        <v>K2</v>
+      </c>
+      <c r="BV19" s="20" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="BW19" s="20" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="BX19" s="20">
+        <f t="shared" si="46"/>
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="BY19" s="20">
+        <f t="shared" si="47"/>
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="CA19" s="16">
+        <v>17</v>
+      </c>
+      <c r="CB19" s="20">
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="CC19" s="20">
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="CD19" s="20">
+        <f t="shared" si="48"/>
+        <v>3.3704457995279431</v>
+      </c>
+      <c r="CE19" s="20">
+        <f t="shared" si="49"/>
+        <v>1.0879242814746906</v>
+      </c>
+      <c r="CF19" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>K2</v>
+      </c>
+      <c r="CG19" s="20" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="CH19" s="20" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="CI19" s="20">
+        <f t="shared" si="53"/>
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="CJ19" s="20">
+        <f t="shared" si="54"/>
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="CL19" s="16">
+        <v>17</v>
+      </c>
+      <c r="CM19" s="20">
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="CN19" s="20">
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="CO19" s="20">
+        <f t="shared" si="55"/>
+        <v>3.3704457995279431</v>
+      </c>
+      <c r="CP19" s="20">
+        <f t="shared" si="56"/>
+        <v>1.0879242814746906</v>
+      </c>
+      <c r="CQ19" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>K2</v>
+      </c>
+      <c r="CR19" s="20" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="CS19" s="20" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="CT19" s="20">
+        <f t="shared" si="60"/>
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="CU19" s="20">
+        <f t="shared" si="61"/>
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="CW19" s="16">
+        <v>17</v>
+      </c>
+      <c r="CX19" s="20">
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="CY19" s="20">
+        <v>-1.0879755420045065</v>
+      </c>
+      <c r="CZ19" s="20">
+        <f t="shared" si="62"/>
+        <v>3.3704457995279431</v>
+      </c>
+      <c r="DA19" s="20">
+        <f t="shared" si="63"/>
+        <v>1.0879242814746906</v>
+      </c>
+      <c r="DB19" s="15" t="str">
+        <f t="shared" si="64"/>
+        <v>K2</v>
+      </c>
+      <c r="DC19" s="20" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="DD19" s="20" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="DE19" s="20">
+        <f t="shared" si="67"/>
+        <v>1.7280411453434781</v>
+      </c>
+      <c r="DF19" s="20">
+        <f t="shared" si="68"/>
+        <v>-1.0879755420045065</v>
+      </c>
+    </row>
+    <row r="20" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="16">
+        <v>18</v>
+      </c>
+      <c r="C20" s="20">
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="D20" s="20">
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="E20" s="20">
+        <f>SQRT(($C20-$C$23)^2+($D20-$D$23)^2)</f>
+        <v>6.0006216361307105</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>K2</v>
+      </c>
+      <c r="H20" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I20" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J20" s="20">
+        <f t="shared" si="4"/>
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="K20" s="20">
+        <f t="shared" si="5"/>
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="M20" s="16">
+        <v>18</v>
+      </c>
+      <c r="N20" s="20">
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="O20" s="20">
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="P20" s="20">
+        <f t="shared" si="6"/>
+        <v>4.3768879272327217</v>
+      </c>
+      <c r="Q20" s="20">
+        <f t="shared" si="7"/>
+        <v>1.5018258361814869</v>
+      </c>
+      <c r="R20" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>K2</v>
+      </c>
+      <c r="S20" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T20" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="U20" s="20">
+        <f t="shared" si="11"/>
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="V20" s="20">
+        <f t="shared" si="12"/>
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="X20" s="16">
+        <v>18</v>
+      </c>
+      <c r="Y20" s="20">
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="Z20" s="20">
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="AA20" s="20">
+        <f t="shared" si="13"/>
+        <v>4.3768879272327217</v>
+      </c>
+      <c r="AB20" s="20">
+        <f t="shared" si="14"/>
+        <v>1.5018258361814869</v>
+      </c>
+      <c r="AC20" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>K2</v>
+      </c>
+      <c r="AD20" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AE20" s="20" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AF20" s="20">
+        <f t="shared" si="18"/>
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="AG20" s="20">
+        <f t="shared" si="19"/>
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="AI20" s="16">
+        <v>18</v>
+      </c>
+      <c r="AJ20" s="20">
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="AK20" s="20">
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="AL20" s="20">
+        <f t="shared" si="20"/>
+        <v>4.3768879272327217</v>
+      </c>
+      <c r="AM20" s="20">
+        <f t="shared" si="21"/>
+        <v>1.5018258361814869</v>
+      </c>
+      <c r="AN20" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>K2</v>
+      </c>
+      <c r="AO20" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AP20" s="20" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ20" s="20">
+        <f t="shared" si="25"/>
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="AR20" s="20">
+        <f t="shared" si="26"/>
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="AT20" s="16">
+        <v>18</v>
+      </c>
+      <c r="AU20" s="20">
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="AV20" s="20">
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="AW20" s="20">
+        <f t="shared" si="27"/>
+        <v>4.3768879272327217</v>
+      </c>
+      <c r="AX20" s="20">
+        <f t="shared" si="28"/>
+        <v>1.5018258361814869</v>
+      </c>
+      <c r="AY20" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>K2</v>
+      </c>
+      <c r="AZ20" s="20" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="BA20" s="20" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="BB20" s="20">
+        <f t="shared" si="32"/>
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="BC20" s="20">
+        <f t="shared" si="33"/>
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="BE20" s="16">
+        <v>18</v>
+      </c>
+      <c r="BF20" s="20">
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="BG20" s="20">
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="BH20" s="20">
+        <f t="shared" si="34"/>
+        <v>4.3768879272327217</v>
+      </c>
+      <c r="BI20" s="20">
+        <f t="shared" si="35"/>
+        <v>1.5018258361814869</v>
+      </c>
+      <c r="BJ20" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>K2</v>
+      </c>
+      <c r="BK20" s="20" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="BL20" s="20" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="BM20" s="20">
+        <f t="shared" si="39"/>
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="BN20" s="20">
+        <f t="shared" si="40"/>
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="BP20" s="16">
+        <v>18</v>
+      </c>
+      <c r="BQ20" s="20">
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="BR20" s="20">
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="BS20" s="20">
+        <f t="shared" si="41"/>
+        <v>4.3768879272327217</v>
+      </c>
+      <c r="BT20" s="20">
+        <f t="shared" si="42"/>
+        <v>1.5018258361814869</v>
+      </c>
+      <c r="BU20" s="15" t="str">
+        <f t="shared" si="43"/>
+        <v>K2</v>
+      </c>
+      <c r="BV20" s="20" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="BW20" s="20" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="BX20" s="20">
+        <f t="shared" si="46"/>
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="BY20" s="20">
+        <f t="shared" si="47"/>
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="CA20" s="16">
+        <v>18</v>
+      </c>
+      <c r="CB20" s="20">
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="CC20" s="20">
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="CD20" s="20">
+        <f t="shared" si="48"/>
+        <v>4.3768879272327217</v>
+      </c>
+      <c r="CE20" s="20">
+        <f t="shared" si="49"/>
+        <v>1.5018258361814869</v>
+      </c>
+      <c r="CF20" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>K2</v>
+      </c>
+      <c r="CG20" s="20" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="CH20" s="20" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="CI20" s="20">
+        <f t="shared" si="53"/>
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="CJ20" s="20">
+        <f t="shared" si="54"/>
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="CL20" s="16">
+        <v>18</v>
+      </c>
+      <c r="CM20" s="20">
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="CN20" s="20">
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="CO20" s="20">
+        <f t="shared" si="55"/>
+        <v>4.3768879272327217</v>
+      </c>
+      <c r="CP20" s="20">
+        <f t="shared" si="56"/>
+        <v>1.5018258361814869</v>
+      </c>
+      <c r="CQ20" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>K2</v>
+      </c>
+      <c r="CR20" s="20" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="CS20" s="20" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="CT20" s="20">
+        <f t="shared" si="60"/>
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="CU20" s="20">
+        <f t="shared" si="61"/>
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="CW20" s="16">
+        <v>18</v>
+      </c>
+      <c r="CX20" s="20">
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="CY20" s="20">
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="CZ20" s="20">
+        <f t="shared" si="62"/>
+        <v>4.3768879272327217</v>
+      </c>
+      <c r="DA20" s="20">
+        <f t="shared" si="63"/>
+        <v>1.5018258361814869</v>
+      </c>
+      <c r="DB20" s="15" t="str">
+        <f t="shared" si="64"/>
+        <v>K2</v>
+      </c>
+      <c r="DC20" s="20" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="DD20" s="20" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="DE20" s="20">
+        <f t="shared" si="67"/>
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="DF20" s="20">
+        <f t="shared" si="68"/>
+        <v>-0.41081234158676389</v>
+      </c>
+    </row>
+    <row r="22" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="V22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="BI22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="BN22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="BQ22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="BR22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="BT22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BV22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BW22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="BX22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="BY22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="CC22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="CD22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="CE22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="CG22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="CH22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="CI22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="CJ22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="CM22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="CN22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="CO22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="CP22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="CR22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="CS22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="CU22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="CX22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="CY22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="CZ22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="DA22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="DC22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="DD22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="DE22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="DF22" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:110" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="20">
+        <v>-3.0884139618904713</v>
+      </c>
+      <c r="D23" s="20">
+        <v>-0.10834611206683883</v>
+      </c>
+      <c r="E23" s="20">
+        <v>2.9045797974922296</v>
+      </c>
+      <c r="F23" s="20">
+        <v>-0.41081234158676389</v>
+      </c>
+      <c r="H23" s="20">
+        <f>AVERAGE(H3:H20)</f>
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="I23" s="20">
+        <f>AVERAGE(I3:I20)</f>
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="J23" s="20">
+        <f>AVERAGE(J3:J20)</f>
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="K23" s="20">
+        <f>AVERAGE(K3:K20)</f>
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="N23" s="20">
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="O23" s="20">
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="P23" s="20">
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="Q23" s="20">
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="S23" s="20">
+        <f>AVERAGE(S3:S20)</f>
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="T23" s="20">
+        <f>AVERAGE(T3:T20)</f>
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="U23" s="20">
+        <f>AVERAGE(U3:U20)</f>
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="V23" s="20">
+        <f>AVERAGE(V3:V20)</f>
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="Y23" s="20">
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="Z23" s="20">
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="AA23" s="20">
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="AB23" s="20">
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="AD23" s="20">
+        <f>AVERAGE(AD3:AD20)</f>
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="AE23" s="20">
+        <f>AVERAGE(AE3:AE20)</f>
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="AF23" s="20">
+        <f>AVERAGE(AF3:AF20)</f>
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="AG23" s="20">
+        <f>AVERAGE(AG3:AG20)</f>
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="AJ23" s="20">
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="AK23" s="20">
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="AL23" s="20">
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="AM23" s="20">
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="AO23" s="20">
+        <f>AVERAGE(AO3:AO20)</f>
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="AP23" s="20">
+        <f>AVERAGE(AP3:AP20)</f>
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="AQ23" s="20">
+        <f>AVERAGE(AQ3:AQ20)</f>
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="AR23" s="20">
+        <f>AVERAGE(AR3:AR20)</f>
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="AU23" s="20">
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="AV23" s="20">
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="AW23" s="20">
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="AX23" s="20">
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="AZ23" s="20">
+        <f>AVERAGE(AZ3:AZ20)</f>
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="BA23" s="20">
+        <f>AVERAGE(BA3:BA20)</f>
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="BB23" s="20">
+        <f>AVERAGE(BB3:BB20)</f>
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="BC23" s="20">
+        <f>AVERAGE(BC3:BC20)</f>
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="BF23" s="20">
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="BG23" s="20">
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="BH23" s="20">
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="BI23" s="20">
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="BK23" s="20">
+        <f>AVERAGE(BK3:BK20)</f>
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="BL23" s="20">
+        <f>AVERAGE(BL3:BL20)</f>
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="BM23" s="20">
+        <f>AVERAGE(BM3:BM20)</f>
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="BN23" s="20">
+        <f>AVERAGE(BN3:BN20)</f>
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="BQ23" s="20">
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="BR23" s="20">
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="BS23" s="20">
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="BT23" s="20">
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="BV23" s="20">
+        <f>AVERAGE(BV3:BV20)</f>
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="BW23" s="20">
+        <f>AVERAGE(BW3:BW20)</f>
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="BX23" s="20">
+        <f>AVERAGE(BX3:BX20)</f>
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="BY23" s="20">
+        <f>AVERAGE(BY3:BY20)</f>
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="CB23" s="20">
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="CC23" s="20">
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="CD23" s="20">
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="CE23" s="20">
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="CG23" s="20">
+        <f>AVERAGE(CG3:CG20)</f>
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="CH23" s="20">
+        <f>AVERAGE(CH3:CH20)</f>
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="CI23" s="20">
+        <f>AVERAGE(CI3:CI20)</f>
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="CJ23" s="20">
+        <f>AVERAGE(CJ3:CJ20)</f>
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="CM23" s="20">
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="CN23" s="20">
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="CO23" s="20">
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="CP23" s="20">
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="CR23" s="20">
+        <f>AVERAGE(CR3:CR20)</f>
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="CS23" s="20">
+        <f>AVERAGE(CS3:CS20)</f>
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="CT23" s="20">
+        <f>AVERAGE(CT3:CT20)</f>
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="CU23" s="20">
+        <f>AVERAGE(CU3:CU20)</f>
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="CX23" s="20">
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="CY23" s="20">
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="CZ23" s="20">
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="DA23" s="20">
+        <v>-3.6115370688946366E-2</v>
+      </c>
+      <c r="DC23" s="20">
+        <f>AVERAGE(DC3:DC20)</f>
+        <v>-1.4494302561888086</v>
+      </c>
+      <c r="DD23" s="20">
+        <f>AVERAGE(DD3:DD20)</f>
+        <v>3.6115370688946276E-2</v>
+      </c>
+      <c r="DE23" s="20">
+        <f>AVERAGE(DE3:DE20)</f>
+        <v>1.4502472969194677</v>
+      </c>
+      <c r="DF23" s="20">
+        <f>AVERAGE(DF3:DF20)</f>
+        <v>-3.6115370688946366E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="DC2:DD2"/>
+    <mergeCell ref="DE2:DF2"/>
+    <mergeCell ref="BV2:BW2"/>
+    <mergeCell ref="BX2:BY2"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CR2:CS2"/>
+    <mergeCell ref="CT2:CU2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="I3 T3" formula="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>